--- a/Examples/GUI_Truss2D/GUI_FULLTRUSS_1_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_FULLTRUSS_1_Solved.xlsx
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-101.41082</v>
       </c>
     </row>
     <row r="3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-45.70571</v>
       </c>
     </row>
     <row r="4">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-15.35997</v>
       </c>
     </row>
     <row r="5">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.31427</v>
       </c>
     </row>
     <row r="6">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.73766</v>
       </c>
     </row>
     <row r="7">
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18.64103</v>
       </c>
     </row>
     <row r="8">
@@ -1645,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>21.52329</v>
       </c>
     </row>
     <row r="9">
@@ -1653,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>22.2909</v>
       </c>
     </row>
     <row r="10">
@@ -1661,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>21.51725</v>
       </c>
     </row>
     <row r="11">
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>19.60178</v>
       </c>
     </row>
     <row r="12">
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>16.7922</v>
       </c>
     </row>
     <row r="13">
@@ -1685,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>13.2874</v>
       </c>
     </row>
     <row r="14">
@@ -1693,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.22686</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4.71922</v>
       </c>
     </row>
     <row r="16">
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.17523</v>
       </c>
     </row>
     <row r="17">
@@ -1717,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.17523</v>
       </c>
     </row>
     <row r="18">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4.71922</v>
       </c>
     </row>
     <row r="19">
@@ -1733,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9.22686</v>
       </c>
     </row>
     <row r="20">
@@ -1741,7 +1741,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13.2874</v>
       </c>
     </row>
     <row r="21">
@@ -1749,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>16.7922</v>
       </c>
     </row>
     <row r="22">
@@ -1757,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>19.60178</v>
       </c>
     </row>
     <row r="23">
@@ -1765,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.51725</v>
       </c>
     </row>
     <row r="24">
@@ -1773,7 +1773,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>22.2909</v>
       </c>
     </row>
     <row r="25">
@@ -1781,7 +1781,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>21.52329</v>
       </c>
     </row>
     <row r="26">
@@ -1789,7 +1789,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>18.64103</v>
       </c>
     </row>
     <row r="27">
@@ -1797,7 +1797,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>12.73766</v>
       </c>
     </row>
     <row r="28">
@@ -1805,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.31427</v>
       </c>
     </row>
     <row r="29">
@@ -1813,7 +1813,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-15.35997</v>
       </c>
     </row>
     <row r="30">
@@ -1821,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-45.70571</v>
       </c>
     </row>
     <row r="31">
@@ -1829,7 +1829,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-101.41082</v>
       </c>
     </row>
     <row r="32">
@@ -1837,7 +1837,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-37.43692</v>
       </c>
     </row>
     <row r="33">
@@ -1845,7 +1845,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>61.96498</v>
       </c>
     </row>
     <row r="34">
@@ -1853,7 +1853,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>61.9645</v>
       </c>
     </row>
     <row r="35">
@@ -1861,7 +1861,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-37.43692</v>
       </c>
     </row>
     <row r="36">
@@ -1869,7 +1869,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-27.14323</v>
       </c>
     </row>
     <row r="37">
@@ -1877,7 +1877,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>36.19162</v>
       </c>
     </row>
     <row r="38">
@@ -1885,7 +1885,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>36.19262</v>
       </c>
     </row>
     <row r="39">
@@ -1893,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-27.14323</v>
       </c>
     </row>
     <row r="40">
@@ -1901,7 +1901,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-19.71973</v>
       </c>
     </row>
     <row r="41">
@@ -1909,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>22.7649</v>
       </c>
     </row>
     <row r="42">
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>22.76657</v>
       </c>
     </row>
     <row r="43">
@@ -1925,7 +1925,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-19.71973</v>
       </c>
     </row>
     <row r="44">
@@ -1933,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-14.34914</v>
       </c>
     </row>
     <row r="45">
@@ -1941,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.56142</v>
       </c>
     </row>
     <row r="46">
@@ -1949,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>14.56093</v>
       </c>
     </row>
     <row r="47">
@@ -1957,7 +1957,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-14.34914</v>
       </c>
     </row>
     <row r="48">
@@ -1965,7 +1965,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-56.43107</v>
       </c>
     </row>
     <row r="49">
@@ -1973,7 +1973,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-10.15972</v>
       </c>
     </row>
     <row r="50">
@@ -1981,7 +1981,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>8.933020000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-10.08963</v>
       </c>
     </row>
     <row r="52">
@@ -1997,7 +1997,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>-10.09184</v>
       </c>
     </row>
     <row r="53">
@@ -2005,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>8.93221</v>
       </c>
     </row>
     <row r="54">
@@ -2013,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-10.16365</v>
       </c>
     </row>
     <row r="55">
@@ -2021,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-56.43257</v>
       </c>
     </row>
     <row r="56">
@@ -2029,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-11.89016</v>
       </c>
     </row>
     <row r="57">
@@ -2037,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-11.88789</v>
       </c>
     </row>
     <row r="58">
@@ -2045,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>-6.70857</v>
       </c>
     </row>
     <row r="59">
@@ -2053,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4.72441</v>
       </c>
     </row>
     <row r="60">
@@ -2061,7 +2061,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-13.60656</v>
       </c>
     </row>
     <row r="61">
@@ -2069,7 +2069,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-13.60699</v>
       </c>
     </row>
     <row r="62">
@@ -2077,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>4.72174</v>
       </c>
     </row>
     <row r="63">
@@ -2085,7 +2085,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>-6.70857</v>
       </c>
     </row>
     <row r="64">
@@ -2093,7 +2093,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>-15.26503</v>
       </c>
     </row>
     <row r="65">
@@ -2101,7 +2101,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>-15.26386</v>
       </c>
     </row>
     <row r="66">
@@ -2109,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-87.18165999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2117,7 +2117,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-3.74339</v>
       </c>
     </row>
     <row r="68">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1.36326</v>
       </c>
     </row>
     <row r="69">
@@ -2133,7 +2133,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1.36031</v>
       </c>
     </row>
     <row r="70">
@@ -2141,7 +2141,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>-3.74398</v>
       </c>
     </row>
     <row r="71">
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>-87.18000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -2157,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-1.12294</v>
       </c>
     </row>
     <row r="73">
@@ -2165,7 +2165,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>-1.46542</v>
       </c>
     </row>
     <row r="74">
@@ -2173,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>-1.46473</v>
       </c>
     </row>
     <row r="75">
@@ -2181,7 +2181,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>-1.12294</v>
       </c>
     </row>
     <row r="76">
@@ -2189,7 +2189,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>-105.08253</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1.24702</v>
       </c>
     </row>
     <row r="78">
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>-3.9352</v>
       </c>
     </row>
     <row r="79">
@@ -2213,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-3.93339</v>
       </c>
     </row>
     <row r="80">
@@ -2221,7 +2221,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1.24702</v>
       </c>
     </row>
     <row r="81">
@@ -2229,7 +2229,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-105.08269</v>
       </c>
     </row>
     <row r="82">
@@ -2237,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>3.43184</v>
       </c>
     </row>
     <row r="83">
@@ -2245,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>-6.15139</v>
       </c>
     </row>
     <row r="84">
@@ -2253,7 +2253,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>-6.1502</v>
       </c>
     </row>
     <row r="85">
@@ -2261,7 +2261,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>3.43248</v>
       </c>
     </row>
     <row r="86">
@@ -2269,7 +2269,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-115.64593</v>
       </c>
     </row>
     <row r="87">
@@ -2277,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>5.47248</v>
       </c>
     </row>
     <row r="88">
@@ -2285,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>-8.185689999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2293,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>-8.18596</v>
       </c>
     </row>
     <row r="90">
@@ -2301,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>5.47274</v>
       </c>
     </row>
     <row r="91">
@@ -2309,7 +2309,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>-115.64336</v>
       </c>
     </row>
     <row r="92">
@@ -2317,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>7.39802</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>7.39802</v>
       </c>
     </row>
     <row r="94">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>-121.62394</v>
       </c>
     </row>
     <row r="95">
@@ -2341,7 +2341,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>9.235110000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2349,7 +2349,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>9.235110000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2357,7 +2357,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-121.62102</v>
       </c>
     </row>
     <row r="98">
@@ -2365,7 +2365,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>10.99886</v>
       </c>
     </row>
     <row r="99">
@@ -2373,7 +2373,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>10.99886</v>
       </c>
     </row>
     <row r="100">
@@ -2381,7 +2381,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>-124.54447</v>
       </c>
     </row>
     <row r="101">
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>12.69901</v>
       </c>
     </row>
     <row r="102">
@@ -2397,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>12.69901</v>
       </c>
     </row>
     <row r="103">
@@ -2405,7 +2405,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>-124.54463</v>
       </c>
     </row>
     <row r="104">
@@ -2413,7 +2413,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>28.70439</v>
       </c>
     </row>
     <row r="105">
@@ -2421,7 +2421,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>-125.32018</v>
       </c>
     </row>
     <row r="106">
@@ -2429,7 +2429,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>-125.31895</v>
       </c>
     </row>
     <row r="107">
@@ -2437,7 +2437,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>-124.53835</v>
       </c>
     </row>
     <row r="108">
@@ -2445,7 +2445,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>-10.09066</v>
       </c>
     </row>
     <row r="109">
@@ -2453,7 +2453,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>-10.0901</v>
       </c>
     </row>
     <row r="110">
@@ -2461,7 +2461,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>-124.54297</v>
       </c>
     </row>
     <row r="111">
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="112">
@@ -2477,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>-0.00023</v>
       </c>
     </row>
     <row r="113">
@@ -2485,7 +2485,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>-11.88818</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2493,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>-11.88872</v>
       </c>
     </row>
     <row r="115">
@@ -2501,7 +2501,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>-122.59799</v>
       </c>
     </row>
     <row r="116">
@@ -2509,7 +2509,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-122.59753</v>
       </c>
     </row>
     <row r="117">
@@ -2517,7 +2517,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.00323</v>
       </c>
     </row>
     <row r="118">
@@ -2525,7 +2525,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="119">
@@ -2533,7 +2533,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>-13.60734</v>
       </c>
     </row>
     <row r="120">
@@ -2541,7 +2541,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>-13.60715</v>
       </c>
     </row>
     <row r="121">
@@ -2549,7 +2549,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>-119.75305</v>
       </c>
     </row>
     <row r="122">
@@ -2557,7 +2557,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>-0.00062</v>
       </c>
     </row>
     <row r="123">
@@ -2565,7 +2565,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>-0.00242</v>
       </c>
     </row>
     <row r="124">
@@ -2573,7 +2573,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>-119.75148</v>
       </c>
     </row>
     <row r="125">
@@ -2581,7 +2581,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>-15.26429</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>-15.2673</v>
       </c>
     </row>
     <row r="127">
@@ -2597,7 +2597,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="128">
@@ -2605,7 +2605,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>-0.00196</v>
       </c>
     </row>
     <row r="129">
@@ -2613,7 +2613,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>-116.20157</v>
       </c>
     </row>
     <row r="130">
@@ -2621,7 +2621,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>-116.20215</v>
       </c>
     </row>
     <row r="131">
@@ -2629,7 +2629,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>-112.09058</v>
       </c>
     </row>
     <row r="132">
@@ -2637,7 +2637,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>-112.09214</v>
       </c>
     </row>
     <row r="133">
@@ -2645,7 +2645,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>-107.51431</v>
       </c>
     </row>
     <row r="134">
@@ -2653,7 +2653,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>-107.51277</v>
       </c>
     </row>
     <row r="135">
@@ -2661,7 +2661,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>-102.56218</v>
       </c>
     </row>
     <row r="136">
@@ -2669,7 +2669,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>-102.56597</v>
       </c>
     </row>
     <row r="137">
@@ -2677,7 +2677,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>-97.29940999999999</v>
       </c>
     </row>
     <row r="138">
@@ -2685,7 +2685,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>-97.29940000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8652,10 +8652,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42.254</v>
+        <v>47.263</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6</v>
+        <v>16.394</v>
       </c>
     </row>
     <row r="3">
@@ -8663,10 +8663,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-42.254</v>
+        <v>-47.263</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6</v>
+        <v>15.586</v>
       </c>
     </row>
   </sheetData>
@@ -14697,10 +14697,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-8.000000000000001e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00172</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4">
@@ -14708,10 +14708,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0001</v>
+        <v>-0.00012</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00337</v>
+        <v>-0.00374</v>
       </c>
     </row>
     <row r="5">
@@ -14719,10 +14719,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00011</v>
+        <v>-0.00013</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00492</v>
+        <v>-0.00547</v>
       </c>
     </row>
     <row r="6">
@@ -14730,10 +14730,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00011</v>
+        <v>-0.00013</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00609</v>
+        <v>-0.00679</v>
       </c>
     </row>
     <row r="7">
@@ -14741,10 +14741,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001</v>
+        <v>-0.00012</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00688</v>
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="8">
@@ -14752,10 +14752,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.00011</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0076</v>
+        <v>-0.008529999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -14763,10 +14763,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.008229999999999999</v>
+        <v>-0.009259999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -14774,10 +14774,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-6e-05</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.00993</v>
       </c>
     </row>
     <row r="11">
@@ -14785,10 +14785,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-4e-05</v>
+        <v>-5e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00928</v>
+        <v>-0.01048</v>
       </c>
     </row>
     <row r="12">
@@ -14796,10 +14796,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-3e-05</v>
+        <v>-4e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00967</v>
+        <v>-0.01094</v>
       </c>
     </row>
     <row r="13">
@@ -14810,7 +14810,7 @@
         <v>-2e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00997</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="14">
@@ -14818,10 +14818,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-1e-05</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0101</v>
+        <v>-0.01146</v>
       </c>
     </row>
     <row r="15">
@@ -14829,10 +14829,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>1e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01014</v>
+        <v>-0.01151</v>
       </c>
     </row>
     <row r="16">
@@ -14840,10 +14840,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01013</v>
+        <v>-0.01148</v>
       </c>
     </row>
     <row r="17">
@@ -14851,10 +14851,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01</v>
+        <v>-0.01131</v>
       </c>
     </row>
     <row r="18">
@@ -14862,10 +14862,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>3e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01007</v>
+        <v>-0.01137</v>
       </c>
     </row>
     <row r="19">
@@ -14873,10 +14873,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01019</v>
+        <v>-0.01146</v>
       </c>
     </row>
     <row r="20">
@@ -14884,10 +14884,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01021</v>
+        <v>-0.01143</v>
       </c>
     </row>
     <row r="21">
@@ -14895,10 +14895,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2e-05</v>
+        <v>6e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01013</v>
+        <v>-0.01131</v>
       </c>
     </row>
     <row r="22">
@@ -14906,10 +14906,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00987</v>
+        <v>-0.01096</v>
       </c>
     </row>
     <row r="23">
@@ -14917,10 +14917,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00944</v>
+        <v>-0.01039</v>
       </c>
     </row>
     <row r="24">
@@ -14928,10 +14928,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0089</v>
+        <v>-0.009719999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -14939,10 +14939,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00826</v>
+        <v>-0.00895</v>
       </c>
     </row>
     <row r="26">
@@ -14950,10 +14950,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00013</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00752</v>
+        <v>-0.00809</v>
       </c>
     </row>
     <row r="27">
@@ -14961,10 +14961,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001</v>
+        <v>0.00014</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00672</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="28">
@@ -14972,10 +14972,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00011</v>
+        <v>0.00014</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00584</v>
+        <v>-0.00622</v>
       </c>
     </row>
     <row r="29">
@@ -14983,10 +14983,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00011</v>
+        <v>0.00014</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00487</v>
+        <v>-0.00515</v>
       </c>
     </row>
     <row r="30">
@@ -14994,10 +14994,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001</v>
+        <v>0.00012</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00352</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="31">
@@ -15005,10 +15005,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00179</v>
+        <v>-0.00188</v>
       </c>
     </row>
     <row r="32">
@@ -15027,7 +15027,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00069</v>
+        <v>0.00076</v>
       </c>
       <c r="C33" t="n">
         <v>-2e-05</v>
@@ -15038,7 +15038,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00072</v>
+        <v>-0.00076</v>
       </c>
       <c r="C34" t="n">
         <v>-2e-05</v>
@@ -15049,10 +15049,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00091</v>
+        <v>0.00101</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00174</v>
+        <v>-0.00192</v>
       </c>
     </row>
     <row r="36">
@@ -15060,10 +15060,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00096</v>
+        <v>-0.00101</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00181</v>
+        <v>-0.00189</v>
       </c>
     </row>
     <row r="37">
@@ -15071,10 +15071,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0011</v>
+        <v>0.00122</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00339</v>
+        <v>-0.00375</v>
       </c>
     </row>
     <row r="38">
@@ -15082,10 +15082,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00094</v>
+        <v>-0.00099</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00353</v>
+        <v>-0.00371</v>
       </c>
     </row>
     <row r="39">
@@ -15093,10 +15093,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00099</v>
+        <v>0.00111</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00494</v>
+        <v>-0.00548</v>
       </c>
     </row>
     <row r="40">
@@ -15104,10 +15104,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00079</v>
+        <v>-0.00085</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00488</v>
+        <v>-0.00517</v>
       </c>
     </row>
     <row r="41">
@@ -15115,10 +15115,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00078</v>
+        <v>0.00088</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="42">
@@ -15126,10 +15126,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00019</v>
+        <v>0.00021</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01003</v>
+        <v>-0.01138</v>
       </c>
     </row>
     <row r="43">
@@ -15137,10 +15137,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00012</v>
+        <v>-0.00011</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01016</v>
+        <v>-0.01137</v>
       </c>
     </row>
     <row r="44">
@@ -15148,10 +15148,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00087</v>
+        <v>-0.00094</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00585</v>
+        <v>-0.00623</v>
       </c>
     </row>
     <row r="45">
@@ -15159,10 +15159,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00017</v>
+        <v>0.0002</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01009</v>
+        <v>-0.01145</v>
       </c>
     </row>
     <row r="46">
@@ -15173,7 +15173,7 @@
         <v>-9.000000000000001e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01017</v>
+        <v>-0.01142</v>
       </c>
     </row>
     <row r="47">
@@ -15181,10 +15181,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00082</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00689</v>
+        <v>-0.00771</v>
       </c>
     </row>
     <row r="48">
@@ -15192,10 +15192,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00016</v>
+        <v>0.00018</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01009</v>
+        <v>-0.01144</v>
       </c>
     </row>
     <row r="49">
@@ -15206,7 +15206,7 @@
         <v>-0.00014</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01008</v>
+        <v>-0.01137</v>
       </c>
     </row>
     <row r="50">
@@ -15214,10 +15214,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0009300000000000001</v>
+        <v>-0.00101</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.00673</v>
+        <v>-0.00721</v>
       </c>
     </row>
     <row r="51">
@@ -15225,10 +15225,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00027</v>
+        <v>0.00032</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.009979999999999999</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="52">
@@ -15236,10 +15236,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00011</v>
+        <v>-0.00013</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.009979999999999999</v>
+        <v>-0.01128</v>
       </c>
     </row>
     <row r="53">
@@ -15247,10 +15247,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00085</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0076</v>
+        <v>-0.008529999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -15258,10 +15258,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0009700000000000001</v>
+        <v>-0.00106</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00753</v>
+        <v>-0.00812</v>
       </c>
     </row>
     <row r="55">
@@ -15269,10 +15269,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00086</v>
+        <v>0.00099</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.008240000000000001</v>
+        <v>-0.00927</v>
       </c>
     </row>
     <row r="56">
@@ -15280,10 +15280,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.001</v>
+        <v>-0.00111</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.00826</v>
+        <v>-0.008959999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -15291,10 +15291,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00083</v>
+        <v>0.00096</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.00992</v>
       </c>
     </row>
     <row r="58">
@@ -15302,10 +15302,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.00098</v>
+        <v>-0.0011</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.0089</v>
+        <v>-0.009719999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -15313,10 +15313,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00079</v>
+        <v>0.00091</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.009259999999999999</v>
+        <v>-0.01046</v>
       </c>
     </row>
     <row r="60">
@@ -15324,10 +15324,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00095</v>
+        <v>-0.00108</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00942</v>
+        <v>-0.01038</v>
       </c>
     </row>
     <row r="61">
@@ -15335,10 +15335,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00073</v>
+        <v>0.00085</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00963</v>
+        <v>-0.01091</v>
       </c>
     </row>
     <row r="62">
@@ -15346,10 +15346,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00061</v>
+        <v>-0.0007</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.009860000000000001</v>
+        <v>-0.01095</v>
       </c>
     </row>
     <row r="63">
@@ -15357,10 +15357,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00038</v>
+        <v>0.00044</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.009950000000000001</v>
+        <v>-0.01129</v>
       </c>
     </row>
     <row r="64">
@@ -15368,10 +15368,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.00025</v>
+        <v>-0.00029</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01012</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="65">
@@ -15379,10 +15379,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00033</v>
+        <v>0.00037</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01008</v>
+        <v>-0.01143</v>
       </c>
     </row>
     <row r="66">
@@ -15390,10 +15390,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00018</v>
+        <v>-0.00022</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01019</v>
+        <v>-0.01141</v>
       </c>
     </row>
     <row r="67">
@@ -15401,10 +15401,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00026</v>
+        <v>0.00028</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01012</v>
+        <v>-0.01148</v>
       </c>
     </row>
     <row r="68">
@@ -15412,10 +15412,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0001</v>
+        <v>-0.00014</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01017</v>
+        <v>-0.01144</v>
       </c>
     </row>
     <row r="69">
@@ -15423,10 +15423,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01009</v>
+        <v>-0.01144</v>
       </c>
     </row>
     <row r="70">
@@ -15434,10 +15434,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1e-05</v>
+        <v>-3e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01004</v>
+        <v>-0.01133</v>
       </c>
     </row>
     <row r="71">
@@ -15445,10 +15445,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.00992</v>
+        <v>-0.01121</v>
       </c>
     </row>
   </sheetData>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.25501</v>
+        <v>-47.26422</v>
       </c>
     </row>
     <row r="3">
@@ -17413,7 +17413,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-19.04606</v>
+        <v>-22.62928</v>
       </c>
     </row>
     <row r="4">
@@ -17421,7 +17421,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.39898</v>
+        <v>-8.77971</v>
       </c>
     </row>
     <row r="5">
@@ -17429,7 +17429,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9668</v>
+        <v>-0.29004</v>
       </c>
     </row>
     <row r="6">
@@ -17437,7 +17437,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.30534</v>
+        <v>5.13615</v>
       </c>
     </row>
     <row r="7">
@@ -17445,7 +17445,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.77062</v>
+        <v>8.49572</v>
       </c>
     </row>
     <row r="8">
@@ -17453,7 +17453,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.967029999999999</v>
+        <v>10.38701</v>
       </c>
     </row>
     <row r="9">
@@ -17461,7 +17461,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.287369999999999</v>
+        <v>11.22098</v>
       </c>
     </row>
     <row r="10">
@@ -17469,7 +17469,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.967029999999999</v>
+        <v>11.34776</v>
       </c>
     </row>
     <row r="11">
@@ -17477,7 +17477,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.16338</v>
+        <v>10.96105</v>
       </c>
     </row>
     <row r="12">
@@ -17485,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.99725</v>
+        <v>10.12728</v>
       </c>
     </row>
     <row r="13">
@@ -17493,7 +17493,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5.54095</v>
+        <v>8.97911</v>
       </c>
     </row>
     <row r="14">
@@ -17501,7 +17501,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.84301</v>
+        <v>7.40203</v>
       </c>
     </row>
     <row r="15">
@@ -17509,7 +17509,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.96382</v>
+        <v>5.44432</v>
       </c>
     </row>
     <row r="16">
@@ -17517,7 +17517,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07251000000000001</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="17">
@@ -17525,7 +17525,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.07251000000000001</v>
+        <v>2.91851</v>
       </c>
     </row>
     <row r="18">
@@ -17533,7 +17533,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.96382</v>
+        <v>4.93071</v>
       </c>
     </row>
     <row r="19">
@@ -17541,7 +17541,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.84301</v>
+        <v>6.53191</v>
       </c>
     </row>
     <row r="20">
@@ -17549,7 +17549,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.54095</v>
+        <v>7.64373</v>
       </c>
     </row>
     <row r="21">
@@ -17557,7 +17557,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6.99725</v>
+        <v>8.278269999999999</v>
       </c>
     </row>
     <row r="22">
@@ -17565,7 +17565,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>8.16338</v>
+        <v>8.531969999999999</v>
       </c>
     </row>
     <row r="23">
@@ -17573,7 +17573,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>8.967029999999999</v>
+        <v>8.51989</v>
       </c>
     </row>
     <row r="24">
@@ -17581,7 +17581,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>9.287369999999999</v>
+        <v>8.13325</v>
       </c>
     </row>
     <row r="25">
@@ -17589,7 +17589,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>8.967029999999999</v>
+        <v>7.24492</v>
       </c>
     </row>
     <row r="26">
@@ -17597,7 +17597,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7.77062</v>
+        <v>5.54095</v>
       </c>
     </row>
     <row r="27">
@@ -17605,7 +17605,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5.30534</v>
+        <v>2.47744</v>
       </c>
     </row>
     <row r="28">
@@ -17613,7 +17613,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9668</v>
+        <v>-2.59222</v>
       </c>
     </row>
     <row r="29">
@@ -17621,7 +17621,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.39898</v>
+        <v>-10.68913</v>
       </c>
     </row>
     <row r="30">
@@ -17629,7 +17629,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-19.04606</v>
+        <v>-23.87404</v>
       </c>
     </row>
     <row r="31">
@@ -17637,7 +17637,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25501</v>
+        <v>-47.26422</v>
       </c>
     </row>
     <row r="32">
@@ -17645,7 +17645,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-15.59948</v>
+        <v>-16.23152</v>
       </c>
     </row>
     <row r="33">
@@ -17653,7 +17653,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>25.81846</v>
+        <v>27.40026</v>
       </c>
     </row>
     <row r="34">
@@ -17661,7 +17661,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>25.81674</v>
+        <v>26.01834</v>
       </c>
     </row>
     <row r="35">
@@ -17669,7 +17669,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-15.59948</v>
+        <v>-15.42544</v>
       </c>
     </row>
     <row r="36">
@@ -17677,7 +17677,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-11.31483</v>
+        <v>-11.60337</v>
       </c>
     </row>
     <row r="37">
@@ -17685,7 +17685,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>15.07605</v>
+        <v>16.52184</v>
       </c>
     </row>
     <row r="38">
@@ -17693,7 +17693,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>15.07945</v>
+        <v>15.72446</v>
       </c>
     </row>
     <row r="39">
@@ -17701,7 +17701,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-11.30796</v>
+        <v>-10.99195</v>
       </c>
     </row>
     <row r="40">
@@ -17709,7 +17709,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.21655</v>
+        <v>-8.58479</v>
       </c>
     </row>
     <row r="41">
@@ -17717,7 +17717,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>9.48535</v>
+        <v>10.93389</v>
       </c>
     </row>
     <row r="42">
@@ -17725,7 +17725,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>9.48372</v>
+        <v>10.43768</v>
       </c>
     </row>
     <row r="43">
@@ -17733,7 +17733,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.21655</v>
+        <v>-8.145099999999999</v>
       </c>
     </row>
     <row r="44">
@@ -17741,7 +17741,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.9769</v>
+        <v>-6.44406</v>
       </c>
     </row>
     <row r="45">
@@ -17749,7 +17749,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6.06915</v>
+        <v>7.56698</v>
       </c>
     </row>
     <row r="46">
@@ -17757,7 +17757,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6.06594</v>
+        <v>7.07296</v>
       </c>
     </row>
     <row r="47">
@@ -17765,7 +17765,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.98148</v>
+        <v>-6.12804</v>
       </c>
     </row>
     <row r="48">
@@ -17773,7 +17773,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-23.51143</v>
+        <v>-24.9526</v>
       </c>
     </row>
     <row r="49">
@@ -17781,7 +17781,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.23583</v>
+        <v>-4.81291</v>
       </c>
     </row>
     <row r="50">
@@ -17789,7 +17789,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>3.71935</v>
+        <v>5.09742</v>
       </c>
     </row>
     <row r="51">
@@ -17797,7 +17797,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.20134</v>
+        <v>-3.90273</v>
       </c>
     </row>
     <row r="52">
@@ -17805,7 +17805,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.2029</v>
+        <v>-2.77388</v>
       </c>
     </row>
     <row r="53">
@@ -17813,7 +17813,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>3.72083</v>
+        <v>4.64698</v>
       </c>
     </row>
     <row r="54">
@@ -17821,7 +17821,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.23583</v>
+        <v>-4.46745</v>
       </c>
     </row>
     <row r="55">
@@ -17829,7 +17829,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.51448</v>
+        <v>-23.69649</v>
       </c>
     </row>
     <row r="56">
@@ -17837,7 +17837,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.95296</v>
+        <v>-5.16835</v>
       </c>
     </row>
     <row r="57">
@@ -17845,7 +17845,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.95206</v>
+        <v>-4.22301</v>
       </c>
     </row>
     <row r="58">
@@ -17853,7 +17853,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.7961</v>
+        <v>-3.277</v>
       </c>
     </row>
     <row r="59">
@@ -17861,7 +17861,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1.96944</v>
+        <v>3.1039</v>
       </c>
     </row>
     <row r="60">
@@ -17869,7 +17869,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.66921</v>
+        <v>-6.43957</v>
       </c>
     </row>
     <row r="61">
@@ -17877,7 +17877,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.66932</v>
+        <v>-5.59296</v>
       </c>
     </row>
     <row r="62">
@@ -17885,7 +17885,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.97003</v>
+        <v>2.77972</v>
       </c>
     </row>
     <row r="63">
@@ -17893,7 +17893,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.7961</v>
+        <v>-2.98846</v>
       </c>
     </row>
     <row r="64">
@@ -17901,7 +17901,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-6.36039</v>
+        <v>-7.60039</v>
       </c>
     </row>
     <row r="65">
@@ -17909,7 +17909,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-6.35994</v>
+        <v>-6.98728</v>
       </c>
     </row>
     <row r="66">
@@ -17917,7 +17917,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-36.32547</v>
+        <v>-38.99097</v>
       </c>
     </row>
     <row r="67">
@@ -17925,7 +17925,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.5572</v>
+        <v>-1.93887</v>
       </c>
     </row>
     <row r="68">
@@ -17933,7 +17933,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.56867</v>
+        <v>1.47024</v>
       </c>
     </row>
     <row r="69">
@@ -17941,7 +17941,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5668299999999999</v>
+        <v>1.5843</v>
       </c>
     </row>
     <row r="70">
@@ -17949,7 +17949,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.55964</v>
+        <v>-1.77266</v>
       </c>
     </row>
     <row r="71">
@@ -17957,7 +17957,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-36.3252</v>
+        <v>-37.05116</v>
       </c>
     </row>
     <row r="72">
@@ -17965,7 +17965,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.46789</v>
+        <v>-0.71363</v>
       </c>
     </row>
     <row r="73">
@@ -17973,7 +17973,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.60898</v>
+        <v>0.25052</v>
       </c>
     </row>
     <row r="74">
@@ -17981,7 +17981,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.60975</v>
+        <v>0.73477</v>
       </c>
     </row>
     <row r="75">
@@ -17989,7 +17989,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.46789</v>
+        <v>-0.98828</v>
       </c>
     </row>
     <row r="76">
@@ -17997,7 +17997,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-43.7851</v>
+        <v>-47.5907</v>
       </c>
     </row>
     <row r="77">
@@ -18005,7 +18005,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.52011</v>
+        <v>0.29671</v>
       </c>
     </row>
     <row r="78">
@@ -18013,7 +18013,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.63632</v>
+        <v>-0.8065099999999999</v>
       </c>
     </row>
     <row r="79">
@@ -18021,7 +18021,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.63871</v>
+        <v>0.02691</v>
       </c>
     </row>
     <row r="80">
@@ -18029,7 +18029,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.52011</v>
+        <v>-0.29533</v>
       </c>
     </row>
     <row r="81">
@@ -18037,7 +18037,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-43.78434</v>
+        <v>-45.25947</v>
       </c>
     </row>
     <row r="82">
@@ -18045,7 +18045,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4303</v>
+        <v>1.24327</v>
       </c>
     </row>
     <row r="83">
@@ -18053,7 +18053,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.56236</v>
+        <v>-1.8079</v>
       </c>
     </row>
     <row r="84">
@@ -18061,7 +18061,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.56261</v>
+        <v>-0.5569</v>
       </c>
     </row>
     <row r="85">
@@ -18069,7 +18069,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1.4303</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="86">
@@ -18077,7 +18077,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-48.18568</v>
+        <v>-53.08118</v>
       </c>
     </row>
     <row r="87">
@@ -18085,7 +18085,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2.28006</v>
+        <v>2.16945</v>
       </c>
     </row>
     <row r="88">
@@ -18093,7 +18093,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.41292</v>
+        <v>-2.70181</v>
       </c>
     </row>
     <row r="89">
@@ -18101,7 +18101,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.4118</v>
+        <v>-1.47511</v>
       </c>
     </row>
     <row r="90">
@@ -18109,7 +18109,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>2.28084</v>
+        <v>0.9766</v>
       </c>
     </row>
     <row r="91">
@@ -18117,7 +18117,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-48.18646</v>
+        <v>-50.39176</v>
       </c>
     </row>
     <row r="92">
@@ -18125,7 +18125,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>3.08169</v>
+        <v>3.17983</v>
       </c>
     </row>
     <row r="93">
@@ -18133,7 +18133,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>3.08169</v>
+        <v>1.9923</v>
       </c>
     </row>
     <row r="94">
@@ -18141,7 +18141,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.67208</v>
+        <v>-56.49161</v>
       </c>
     </row>
     <row r="95">
@@ -18149,7 +18149,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>3.84903</v>
+        <v>4.14032</v>
       </c>
     </row>
     <row r="96">
@@ -18157,7 +18157,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>3.8472</v>
+        <v>3.10524</v>
       </c>
     </row>
     <row r="97">
@@ -18165,7 +18165,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-50.67674</v>
+        <v>-53.5017</v>
       </c>
     </row>
     <row r="98">
@@ -18173,7 +18173,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>4.58228</v>
+        <v>5.38264</v>
       </c>
     </row>
     <row r="99">
@@ -18181,7 +18181,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4.58228</v>
+        <v>4.54622</v>
       </c>
     </row>
     <row r="100">
@@ -18189,7 +18189,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-51.89665</v>
+        <v>-58.41082</v>
       </c>
     </row>
     <row r="101">
@@ -18197,7 +18197,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>5.29233</v>
+        <v>6.63077</v>
       </c>
     </row>
     <row r="102">
@@ -18205,7 +18205,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>5.29233</v>
+        <v>5.74009</v>
       </c>
     </row>
     <row r="103">
@@ -18213,7 +18213,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-51.89179</v>
+        <v>-55.21542</v>
       </c>
     </row>
     <row r="104">
@@ -18221,7 +18221,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>11.95991</v>
+        <v>14.38578</v>
       </c>
     </row>
     <row r="105">
@@ -18229,7 +18229,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-52.2138</v>
+        <v>-59.24865</v>
       </c>
     </row>
     <row r="106">
@@ -18237,7 +18237,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-52.21705</v>
+        <v>-56.12623</v>
       </c>
     </row>
     <row r="107">
@@ -18245,7 +18245,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-51.8946</v>
+        <v>-59.38155</v>
       </c>
     </row>
     <row r="108">
@@ -18253,7 +18253,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-4.20418</v>
+        <v>-3.72398</v>
       </c>
     </row>
     <row r="109">
@@ -18261,7 +18261,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.20569</v>
+        <v>-2.55025</v>
       </c>
     </row>
     <row r="110">
@@ -18269,7 +18269,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-51.89109</v>
+        <v>-56.51263</v>
       </c>
     </row>
     <row r="111">
@@ -18277,7 +18277,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.00015</v>
+        <v>0.19956</v>
       </c>
     </row>
     <row r="112">
@@ -18285,7 +18285,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.0015</v>
+        <v>0.24589</v>
       </c>
     </row>
     <row r="113">
@@ -18293,7 +18293,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.9533</v>
+        <v>-5.00318</v>
       </c>
     </row>
     <row r="114">
@@ -18301,7 +18301,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.95419</v>
+        <v>-4.03553</v>
       </c>
     </row>
     <row r="115">
@@ -18309,7 +18309,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-51.08303</v>
+        <v>-58.98423</v>
       </c>
     </row>
     <row r="116">
@@ -18317,7 +18317,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-51.08309</v>
+        <v>-56.52742</v>
       </c>
     </row>
     <row r="117">
@@ -18325,7 +18325,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00023</v>
+        <v>0.18384</v>
       </c>
     </row>
     <row r="118">
@@ -18333,7 +18333,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="119">
@@ -18341,7 +18341,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.67019</v>
+        <v>-6.29028</v>
       </c>
     </row>
     <row r="120">
@@ -18349,7 +18349,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.66982</v>
+        <v>-5.46676</v>
       </c>
     </row>
     <row r="121">
@@ -18357,7 +18357,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-49.89414</v>
+        <v>-58.14648</v>
       </c>
     </row>
     <row r="122">
@@ -18365,7 +18365,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.00203</v>
+        <v>0.16583</v>
       </c>
     </row>
     <row r="123">
@@ -18373,7 +18373,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00148</v>
+        <v>0.14117</v>
       </c>
     </row>
     <row r="124">
@@ -18381,7 +18381,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-49.89602</v>
+        <v>-56.26943</v>
       </c>
     </row>
     <row r="125">
@@ -18389,7 +18389,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-6.3601</v>
+        <v>-7.48532</v>
       </c>
     </row>
     <row r="126">
@@ -18397,7 +18397,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.36175</v>
+        <v>-6.75316</v>
       </c>
     </row>
     <row r="127">
@@ -18405,7 +18405,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.00101</v>
+        <v>0.12776</v>
       </c>
     </row>
     <row r="128">
@@ -18413,7 +18413,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00076</v>
+        <v>0.25544</v>
       </c>
     </row>
     <row r="129">
@@ -18421,7 +18421,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-48.41816</v>
+        <v>-56.97588</v>
       </c>
     </row>
     <row r="130">
@@ -18429,7 +18429,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-48.41828</v>
+        <v>-55.63105</v>
       </c>
     </row>
     <row r="131">
@@ -18437,7 +18437,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-46.69983</v>
+        <v>-55.45734</v>
       </c>
     </row>
     <row r="132">
@@ -18445,7 +18445,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-46.70047</v>
+        <v>-54.58735</v>
       </c>
     </row>
     <row r="133">
@@ -18453,7 +18453,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-44.79794</v>
+        <v>-53.4647</v>
       </c>
     </row>
     <row r="134">
@@ -18461,7 +18461,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-44.80001</v>
+        <v>-52.94939</v>
       </c>
     </row>
     <row r="135">
@@ -18469,7 +18469,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-42.73378</v>
+        <v>-51.10781</v>
       </c>
     </row>
     <row r="136">
@@ -18477,7 +18477,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-42.73289</v>
+        <v>-50.8828</v>
       </c>
     </row>
     <row r="137">
@@ -18485,7 +18485,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-40.54665</v>
+        <v>-48.46656</v>
       </c>
     </row>
     <row r="138">
@@ -18493,7 +18493,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-40.54117</v>
+        <v>-48.51468</v>
       </c>
     </row>
   </sheetData>
@@ -18532,10 +18532,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>101.41</v>
+        <v>42.254</v>
       </c>
       <c r="C2" t="n">
-        <v>37.44</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="3">
@@ -18543,10 +18543,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-101.41</v>
+        <v>-42.254</v>
       </c>
       <c r="C3" t="n">
-        <v>37.44</v>
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>
@@ -18596,10 +18596,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00017</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00413</v>
+        <v>-0.00172</v>
       </c>
     </row>
     <row r="4">
@@ -18607,10 +18607,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00024</v>
+        <v>-0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0081</v>
+        <v>-0.00337</v>
       </c>
     </row>
     <row r="5">
@@ -18618,10 +18618,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00027</v>
+        <v>-0.00011</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01182</v>
+        <v>-0.00492</v>
       </c>
     </row>
     <row r="6">
@@ -18629,10 +18629,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00027</v>
+        <v>-0.00011</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01461</v>
+        <v>-0.00609</v>
       </c>
     </row>
     <row r="7">
@@ -18640,10 +18640,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00024</v>
+        <v>-0.0001</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01652</v>
+        <v>-0.00688</v>
       </c>
     </row>
     <row r="8">
@@ -18651,10 +18651,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00021</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01824</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="9">
@@ -18662,10 +18662,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00018</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01976</v>
+        <v>-0.008229999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -18673,10 +18673,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00014</v>
+        <v>-6e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02113</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -18684,10 +18684,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00011</v>
+        <v>-4e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02227</v>
+        <v>-0.00928</v>
       </c>
     </row>
     <row r="12">
@@ -18695,10 +18695,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-3e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0232</v>
+        <v>-0.00967</v>
       </c>
     </row>
     <row r="13">
@@ -18706,10 +18706,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02393</v>
+        <v>-0.00997</v>
       </c>
     </row>
     <row r="14">
@@ -18717,10 +18717,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-2e-05</v>
+        <v>-1e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02424</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="15">
@@ -18728,10 +18728,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-1e-05</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02434</v>
+        <v>-0.01014</v>
       </c>
     </row>
     <row r="16">
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0243</v>
+        <v>-0.01013</v>
       </c>
     </row>
     <row r="17">
@@ -18753,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.024</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18">
@@ -18764,7 +18764,7 @@
         <v>-0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02416</v>
+        <v>-0.01007</v>
       </c>
     </row>
     <row r="19">
@@ -18772,10 +18772,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02446</v>
+        <v>-0.01019</v>
       </c>
     </row>
     <row r="20">
@@ -18783,10 +18783,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0245</v>
+        <v>-0.01021</v>
       </c>
     </row>
     <row r="21">
@@ -18794,10 +18794,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02432</v>
+        <v>-0.01013</v>
       </c>
     </row>
     <row r="22">
@@ -18805,10 +18805,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02368</v>
+        <v>-0.00987</v>
       </c>
     </row>
     <row r="23">
@@ -18816,10 +18816,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00011</v>
+        <v>4e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02266</v>
+        <v>-0.00944</v>
       </c>
     </row>
     <row r="24">
@@ -18827,10 +18827,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02137</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="25">
@@ -18838,10 +18838,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00018</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01982</v>
+        <v>-0.00826</v>
       </c>
     </row>
     <row r="26">
@@ -18849,10 +18849,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00021</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01804</v>
+        <v>-0.00752</v>
       </c>
     </row>
     <row r="27">
@@ -18860,10 +18860,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00024</v>
+        <v>0.0001</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01612</v>
+        <v>-0.00672</v>
       </c>
     </row>
     <row r="28">
@@ -18871,10 +18871,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00027</v>
+        <v>0.00011</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01401</v>
+        <v>-0.00584</v>
       </c>
     </row>
     <row r="29">
@@ -18882,10 +18882,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00027</v>
+        <v>0.00011</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01168</v>
+        <v>-0.00487</v>
       </c>
     </row>
     <row r="30">
@@ -18893,10 +18893,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00024</v>
+        <v>0.0001</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00844</v>
+        <v>-0.00352</v>
       </c>
     </row>
     <row r="31">
@@ -18904,10 +18904,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00017</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0043</v>
+        <v>-0.00179</v>
       </c>
     </row>
     <row r="32">
@@ -18926,10 +18926,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00165</v>
+        <v>0.00069</v>
       </c>
       <c r="C33" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
     </row>
     <row r="34">
@@ -18937,10 +18937,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00174</v>
+        <v>-0.00072</v>
       </c>
       <c r="C34" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
     </row>
     <row r="35">
@@ -18948,10 +18948,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00219</v>
+        <v>0.00091</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00417</v>
+        <v>-0.00174</v>
       </c>
     </row>
     <row r="36">
@@ -18959,10 +18959,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0023</v>
+        <v>-0.00096</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00434</v>
+        <v>-0.00181</v>
       </c>
     </row>
     <row r="37">
@@ -18970,10 +18970,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00264</v>
+        <v>0.0011</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00813</v>
+        <v>-0.00339</v>
       </c>
     </row>
     <row r="38">
@@ -18981,10 +18981,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00225</v>
+        <v>-0.00094</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00848</v>
+        <v>-0.00353</v>
       </c>
     </row>
     <row r="39">
@@ -18992,10 +18992,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00237</v>
+        <v>0.00099</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01185</v>
+        <v>-0.00494</v>
       </c>
     </row>
     <row r="40">
@@ -19003,10 +19003,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00191</v>
+        <v>-0.00079</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01172</v>
+        <v>-0.00488</v>
       </c>
     </row>
     <row r="41">
@@ -19014,10 +19014,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00186</v>
+        <v>0.00078</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01464</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="42">
@@ -19025,10 +19025,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00045</v>
+        <v>0.00019</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02407</v>
+        <v>-0.01003</v>
       </c>
     </row>
     <row r="43">
@@ -19036,10 +19036,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00029</v>
+        <v>-0.00012</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0244</v>
+        <v>-0.01016</v>
       </c>
     </row>
     <row r="44">
@@ -19047,10 +19047,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00209</v>
+        <v>-0.00087</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01403</v>
+        <v>-0.00585</v>
       </c>
     </row>
     <row r="45">
@@ -19058,10 +19058,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00042</v>
+        <v>0.00017</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02421</v>
+        <v>-0.01009</v>
       </c>
     </row>
     <row r="46">
@@ -19069,10 +19069,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00023</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0244</v>
+        <v>-0.01017</v>
       </c>
     </row>
     <row r="47">
@@ -19080,10 +19080,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00196</v>
+        <v>0.00082</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01654</v>
+        <v>-0.00689</v>
       </c>
     </row>
     <row r="48">
@@ -19091,10 +19091,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00037</v>
+        <v>0.00016</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.02421</v>
+        <v>-0.01009</v>
       </c>
     </row>
     <row r="49">
@@ -19102,10 +19102,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00034</v>
+        <v>-0.00014</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0242</v>
+        <v>-0.01008</v>
       </c>
     </row>
     <row r="50">
@@ -19113,10 +19113,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00222</v>
+        <v>-0.0009300000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01614</v>
+        <v>-0.00673</v>
       </c>
     </row>
     <row r="51">
@@ -19124,10 +19124,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00065</v>
+        <v>0.00027</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.02395</v>
+        <v>-0.009979999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -19135,10 +19135,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00026</v>
+        <v>-0.00011</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.02396</v>
+        <v>-0.009979999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -19146,10 +19146,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00203</v>
+        <v>0.00085</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01825</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="54">
@@ -19157,10 +19157,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.00233</v>
+        <v>-0.0009700000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01808</v>
+        <v>-0.00753</v>
       </c>
     </row>
     <row r="55">
@@ -19168,10 +19168,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00206</v>
+        <v>0.00086</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01978</v>
+        <v>-0.008240000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -19179,10 +19179,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0024</v>
+        <v>-0.001</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01983</v>
+        <v>-0.00826</v>
       </c>
     </row>
     <row r="57">
@@ -19190,10 +19190,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00199</v>
+        <v>0.00083</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02111</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -19201,10 +19201,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.00236</v>
+        <v>-0.00098</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02135</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="59">
@@ -19212,10 +19212,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00189</v>
+        <v>0.00079</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.02222</v>
+        <v>-0.009259999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -19223,10 +19223,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00228</v>
+        <v>-0.00095</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0226</v>
+        <v>-0.00942</v>
       </c>
     </row>
     <row r="61">
@@ -19234,10 +19234,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00176</v>
+        <v>0.00073</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02311</v>
+        <v>-0.00963</v>
       </c>
     </row>
     <row r="62">
@@ -19245,10 +19245,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00146</v>
+        <v>-0.00061</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02366</v>
+        <v>-0.009860000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -19256,10 +19256,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00092</v>
+        <v>0.00038</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02389</v>
+        <v>-0.009950000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -19267,10 +19267,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.00059</v>
+        <v>-0.00025</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.02428</v>
+        <v>-0.01012</v>
       </c>
     </row>
     <row r="65">
@@ -19278,10 +19278,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00078</v>
+        <v>0.00033</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.02419</v>
+        <v>-0.01008</v>
       </c>
     </row>
     <row r="66">
@@ -19289,10 +19289,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00043</v>
+        <v>-0.00018</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.02445</v>
+        <v>-0.01019</v>
       </c>
     </row>
     <row r="67">
@@ -19300,10 +19300,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00061</v>
+        <v>0.00026</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.02428</v>
+        <v>-0.01012</v>
       </c>
     </row>
     <row r="68">
@@ -19311,10 +19311,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.00024</v>
+        <v>-0.0001</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0244</v>
+        <v>-0.01017</v>
       </c>
     </row>
     <row r="69">
@@ -19322,10 +19322,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00043</v>
+        <v>0.00018</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.02423</v>
+        <v>-0.01009</v>
       </c>
     </row>
     <row r="70">
@@ -19336,7 +19336,7 @@
         <v>-1e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.02408</v>
+        <v>-0.01004</v>
       </c>
     </row>
     <row r="71">
@@ -19344,10 +19344,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0002</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.02381</v>
+        <v>-0.00992</v>
       </c>
     </row>
   </sheetData>
@@ -19381,7 +19381,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-101.41082</v>
+        <v>-42.25501</v>
       </c>
     </row>
     <row r="3">
@@ -19389,7 +19389,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-45.70571</v>
+        <v>-19.04606</v>
       </c>
     </row>
     <row r="4">
@@ -19397,7 +19397,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.35997</v>
+        <v>-6.39898</v>
       </c>
     </row>
     <row r="5">
@@ -19405,7 +19405,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.31427</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="6">
@@ -19413,7 +19413,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.73766</v>
+        <v>5.30534</v>
       </c>
     </row>
     <row r="7">
@@ -19421,7 +19421,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.64103</v>
+        <v>7.77062</v>
       </c>
     </row>
     <row r="8">
@@ -19429,7 +19429,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.52329</v>
+        <v>8.967029999999999</v>
       </c>
     </row>
     <row r="9">
@@ -19437,7 +19437,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2909</v>
+        <v>9.287369999999999</v>
       </c>
     </row>
     <row r="10">
@@ -19445,7 +19445,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.51725</v>
+        <v>8.967029999999999</v>
       </c>
     </row>
     <row r="11">
@@ -19453,7 +19453,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.60178</v>
+        <v>8.16338</v>
       </c>
     </row>
     <row r="12">
@@ -19461,7 +19461,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.7922</v>
+        <v>6.99725</v>
       </c>
     </row>
     <row r="13">
@@ -19469,7 +19469,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.2874</v>
+        <v>5.54095</v>
       </c>
     </row>
     <row r="14">
@@ -19477,7 +19477,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.22686</v>
+        <v>3.84301</v>
       </c>
     </row>
     <row r="15">
@@ -19485,7 +19485,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.71922</v>
+        <v>1.96382</v>
       </c>
     </row>
     <row r="16">
@@ -19493,7 +19493,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.17523</v>
+        <v>-0.07251000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -19501,7 +19501,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.17523</v>
+        <v>-0.07251000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -19509,7 +19509,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.71922</v>
+        <v>1.96382</v>
       </c>
     </row>
     <row r="19">
@@ -19517,7 +19517,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>9.22686</v>
+        <v>3.84301</v>
       </c>
     </row>
     <row r="20">
@@ -19525,7 +19525,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>13.2874</v>
+        <v>5.54095</v>
       </c>
     </row>
     <row r="21">
@@ -19533,7 +19533,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16.7922</v>
+        <v>6.99725</v>
       </c>
     </row>
     <row r="22">
@@ -19541,7 +19541,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>19.60178</v>
+        <v>8.16338</v>
       </c>
     </row>
     <row r="23">
@@ -19549,7 +19549,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>21.51725</v>
+        <v>8.967029999999999</v>
       </c>
     </row>
     <row r="24">
@@ -19557,7 +19557,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22.2909</v>
+        <v>9.287369999999999</v>
       </c>
     </row>
     <row r="25">
@@ -19565,7 +19565,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>21.52329</v>
+        <v>8.967029999999999</v>
       </c>
     </row>
     <row r="26">
@@ -19573,7 +19573,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>18.64103</v>
+        <v>7.77062</v>
       </c>
     </row>
     <row r="27">
@@ -19581,7 +19581,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>12.73766</v>
+        <v>5.30534</v>
       </c>
     </row>
     <row r="28">
@@ -19589,7 +19589,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2.31427</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="29">
@@ -19597,7 +19597,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-15.35997</v>
+        <v>-6.39898</v>
       </c>
     </row>
     <row r="30">
@@ -19605,7 +19605,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-45.70571</v>
+        <v>-19.04606</v>
       </c>
     </row>
     <row r="31">
@@ -19613,7 +19613,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-101.41082</v>
+        <v>-42.25501</v>
       </c>
     </row>
     <row r="32">
@@ -19621,7 +19621,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-37.43692</v>
+        <v>-15.59948</v>
       </c>
     </row>
     <row r="33">
@@ -19629,7 +19629,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>61.96498</v>
+        <v>25.81846</v>
       </c>
     </row>
     <row r="34">
@@ -19637,7 +19637,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>61.9645</v>
+        <v>25.81674</v>
       </c>
     </row>
     <row r="35">
@@ -19645,7 +19645,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-37.43692</v>
+        <v>-15.59948</v>
       </c>
     </row>
     <row r="36">
@@ -19653,7 +19653,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-27.14323</v>
+        <v>-11.31483</v>
       </c>
     </row>
     <row r="37">
@@ -19661,7 +19661,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>36.19162</v>
+        <v>15.07605</v>
       </c>
     </row>
     <row r="38">
@@ -19669,7 +19669,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>36.19262</v>
+        <v>15.07945</v>
       </c>
     </row>
     <row r="39">
@@ -19677,7 +19677,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-27.14323</v>
+        <v>-11.30796</v>
       </c>
     </row>
     <row r="40">
@@ -19685,7 +19685,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-19.71973</v>
+        <v>-8.21655</v>
       </c>
     </row>
     <row r="41">
@@ -19693,7 +19693,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>22.7649</v>
+        <v>9.48535</v>
       </c>
     </row>
     <row r="42">
@@ -19701,7 +19701,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>22.76657</v>
+        <v>9.48372</v>
       </c>
     </row>
     <row r="43">
@@ -19709,7 +19709,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-19.71973</v>
+        <v>-8.21655</v>
       </c>
     </row>
     <row r="44">
@@ -19717,7 +19717,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-14.34914</v>
+        <v>-5.9769</v>
       </c>
     </row>
     <row r="45">
@@ -19725,7 +19725,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>14.56142</v>
+        <v>6.06915</v>
       </c>
     </row>
     <row r="46">
@@ -19733,7 +19733,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>14.56093</v>
+        <v>6.06594</v>
       </c>
     </row>
     <row r="47">
@@ -19741,7 +19741,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-14.34914</v>
+        <v>-5.98148</v>
       </c>
     </row>
     <row r="48">
@@ -19749,7 +19749,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-56.43107</v>
+        <v>-23.51143</v>
       </c>
     </row>
     <row r="49">
@@ -19757,7 +19757,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-10.15972</v>
+        <v>-4.23583</v>
       </c>
     </row>
     <row r="50">
@@ -19765,7 +19765,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>8.933020000000001</v>
+        <v>3.71935</v>
       </c>
     </row>
     <row r="51">
@@ -19773,7 +19773,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-10.08963</v>
+        <v>-4.20134</v>
       </c>
     </row>
     <row r="52">
@@ -19781,7 +19781,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-10.09184</v>
+        <v>-4.2029</v>
       </c>
     </row>
     <row r="53">
@@ -19789,7 +19789,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>8.93221</v>
+        <v>3.72083</v>
       </c>
     </row>
     <row r="54">
@@ -19797,7 +19797,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-10.16365</v>
+        <v>-4.23583</v>
       </c>
     </row>
     <row r="55">
@@ -19805,7 +19805,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-56.43257</v>
+        <v>-23.51448</v>
       </c>
     </row>
     <row r="56">
@@ -19813,7 +19813,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-11.89016</v>
+        <v>-4.95296</v>
       </c>
     </row>
     <row r="57">
@@ -19821,7 +19821,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-11.88789</v>
+        <v>-4.95206</v>
       </c>
     </row>
     <row r="58">
@@ -19829,7 +19829,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-6.70857</v>
+        <v>-2.7961</v>
       </c>
     </row>
     <row r="59">
@@ -19837,7 +19837,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4.72441</v>
+        <v>1.96944</v>
       </c>
     </row>
     <row r="60">
@@ -19845,7 +19845,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-13.60656</v>
+        <v>-5.66921</v>
       </c>
     </row>
     <row r="61">
@@ -19853,7 +19853,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-13.60699</v>
+        <v>-5.66932</v>
       </c>
     </row>
     <row r="62">
@@ -19861,7 +19861,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>4.72174</v>
+        <v>1.97003</v>
       </c>
     </row>
     <row r="63">
@@ -19869,7 +19869,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.70857</v>
+        <v>-2.7961</v>
       </c>
     </row>
     <row r="64">
@@ -19877,7 +19877,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-15.26503</v>
+        <v>-6.36039</v>
       </c>
     </row>
     <row r="65">
@@ -19885,7 +19885,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-15.26386</v>
+        <v>-6.35994</v>
       </c>
     </row>
     <row r="66">
@@ -19893,7 +19893,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-87.18165999999999</v>
+        <v>-36.32547</v>
       </c>
     </row>
     <row r="67">
@@ -19901,7 +19901,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.74339</v>
+        <v>-1.5572</v>
       </c>
     </row>
     <row r="68">
@@ -19909,7 +19909,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1.36326</v>
+        <v>0.56867</v>
       </c>
     </row>
     <row r="69">
@@ -19917,7 +19917,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1.36031</v>
+        <v>0.5668299999999999</v>
       </c>
     </row>
     <row r="70">
@@ -19925,7 +19925,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-3.74398</v>
+        <v>-1.55964</v>
       </c>
     </row>
     <row r="71">
@@ -19933,7 +19933,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-87.18000000000001</v>
+        <v>-36.3252</v>
       </c>
     </row>
     <row r="72">
@@ -19941,7 +19941,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.12294</v>
+        <v>-0.46789</v>
       </c>
     </row>
     <row r="73">
@@ -19949,7 +19949,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.46542</v>
+        <v>-0.60898</v>
       </c>
     </row>
     <row r="74">
@@ -19957,7 +19957,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.46473</v>
+        <v>-0.60975</v>
       </c>
     </row>
     <row r="75">
@@ -19965,7 +19965,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.12294</v>
+        <v>-0.46789</v>
       </c>
     </row>
     <row r="76">
@@ -19973,7 +19973,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-105.08253</v>
+        <v>-43.7851</v>
       </c>
     </row>
     <row r="77">
@@ -19981,7 +19981,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.24702</v>
+        <v>0.52011</v>
       </c>
     </row>
     <row r="78">
@@ -19989,7 +19989,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.9352</v>
+        <v>-1.63632</v>
       </c>
     </row>
     <row r="79">
@@ -19997,7 +19997,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-3.93339</v>
+        <v>-1.63871</v>
       </c>
     </row>
     <row r="80">
@@ -20005,7 +20005,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1.24702</v>
+        <v>0.52011</v>
       </c>
     </row>
     <row r="81">
@@ -20013,7 +20013,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-105.08269</v>
+        <v>-43.78434</v>
       </c>
     </row>
     <row r="82">
@@ -20021,7 +20021,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>3.43184</v>
+        <v>1.4303</v>
       </c>
     </row>
     <row r="83">
@@ -20029,7 +20029,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.15139</v>
+        <v>-2.56236</v>
       </c>
     </row>
     <row r="84">
@@ -20037,7 +20037,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.1502</v>
+        <v>-2.56261</v>
       </c>
     </row>
     <row r="85">
@@ -20045,7 +20045,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>3.43248</v>
+        <v>1.4303</v>
       </c>
     </row>
     <row r="86">
@@ -20053,7 +20053,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-115.64593</v>
+        <v>-48.18568</v>
       </c>
     </row>
     <row r="87">
@@ -20061,7 +20061,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>5.47248</v>
+        <v>2.28006</v>
       </c>
     </row>
     <row r="88">
@@ -20069,7 +20069,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-8.185689999999999</v>
+        <v>-3.41292</v>
       </c>
     </row>
     <row r="89">
@@ -20077,7 +20077,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.18596</v>
+        <v>-3.4118</v>
       </c>
     </row>
     <row r="90">
@@ -20085,7 +20085,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>5.47274</v>
+        <v>2.28084</v>
       </c>
     </row>
     <row r="91">
@@ -20093,7 +20093,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-115.64336</v>
+        <v>-48.18646</v>
       </c>
     </row>
     <row r="92">
@@ -20101,7 +20101,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>7.39802</v>
+        <v>3.08169</v>
       </c>
     </row>
     <row r="93">
@@ -20109,7 +20109,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>7.39802</v>
+        <v>3.08169</v>
       </c>
     </row>
     <row r="94">
@@ -20117,7 +20117,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-121.62394</v>
+        <v>-50.67208</v>
       </c>
     </row>
     <row r="95">
@@ -20125,7 +20125,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>9.235110000000001</v>
+        <v>3.84903</v>
       </c>
     </row>
     <row r="96">
@@ -20133,7 +20133,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>9.235110000000001</v>
+        <v>3.8472</v>
       </c>
     </row>
     <row r="97">
@@ -20141,7 +20141,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-121.62102</v>
+        <v>-50.67674</v>
       </c>
     </row>
     <row r="98">
@@ -20149,7 +20149,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>10.99886</v>
+        <v>4.58228</v>
       </c>
     </row>
     <row r="99">
@@ -20157,7 +20157,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>10.99886</v>
+        <v>4.58228</v>
       </c>
     </row>
     <row r="100">
@@ -20165,7 +20165,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-124.54447</v>
+        <v>-51.89665</v>
       </c>
     </row>
     <row r="101">
@@ -20173,7 +20173,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>12.69901</v>
+        <v>5.29233</v>
       </c>
     </row>
     <row r="102">
@@ -20181,7 +20181,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>12.69901</v>
+        <v>5.29233</v>
       </c>
     </row>
     <row r="103">
@@ -20189,7 +20189,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-124.54463</v>
+        <v>-51.89179</v>
       </c>
     </row>
     <row r="104">
@@ -20197,7 +20197,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>28.70439</v>
+        <v>11.95991</v>
       </c>
     </row>
     <row r="105">
@@ -20205,7 +20205,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-125.32018</v>
+        <v>-52.2138</v>
       </c>
     </row>
     <row r="106">
@@ -20213,7 +20213,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-125.31895</v>
+        <v>-52.21705</v>
       </c>
     </row>
     <row r="107">
@@ -20221,7 +20221,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-124.53835</v>
+        <v>-51.8946</v>
       </c>
     </row>
     <row r="108">
@@ -20229,7 +20229,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-10.09066</v>
+        <v>-4.20418</v>
       </c>
     </row>
     <row r="109">
@@ -20237,7 +20237,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-10.0901</v>
+        <v>-4.20569</v>
       </c>
     </row>
     <row r="110">
@@ -20245,7 +20245,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-124.54297</v>
+        <v>-51.89109</v>
       </c>
     </row>
     <row r="111">
@@ -20253,7 +20253,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00024</v>
+        <v>-0.00015</v>
       </c>
     </row>
     <row r="112">
@@ -20261,7 +20261,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.00023</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="113">
@@ -20269,7 +20269,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-11.88818</v>
+        <v>-4.9533</v>
       </c>
     </row>
     <row r="114">
@@ -20277,7 +20277,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-11.88872</v>
+        <v>-4.95419</v>
       </c>
     </row>
     <row r="115">
@@ -20285,7 +20285,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-122.59799</v>
+        <v>-51.08303</v>
       </c>
     </row>
     <row r="116">
@@ -20293,7 +20293,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-122.59753</v>
+        <v>-51.08309</v>
       </c>
     </row>
     <row r="117">
@@ -20301,7 +20301,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00323</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="118">
@@ -20309,7 +20309,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0016</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -20317,7 +20317,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-13.60734</v>
+        <v>-5.67019</v>
       </c>
     </row>
     <row r="120">
@@ -20325,7 +20325,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-13.60715</v>
+        <v>-5.66982</v>
       </c>
     </row>
     <row r="121">
@@ -20333,7 +20333,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-119.75305</v>
+        <v>-49.89414</v>
       </c>
     </row>
     <row r="122">
@@ -20341,7 +20341,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.00062</v>
+        <v>0.00203</v>
       </c>
     </row>
     <row r="123">
@@ -20349,7 +20349,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.00242</v>
+        <v>0.00148</v>
       </c>
     </row>
     <row r="124">
@@ -20357,7 +20357,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-119.75148</v>
+        <v>-49.89602</v>
       </c>
     </row>
     <row r="125">
@@ -20365,7 +20365,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-15.26429</v>
+        <v>-6.3601</v>
       </c>
     </row>
     <row r="126">
@@ -20373,7 +20373,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-15.2673</v>
+        <v>-6.36175</v>
       </c>
     </row>
     <row r="127">
@@ -20381,7 +20381,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.00051</v>
+        <v>-0.00101</v>
       </c>
     </row>
     <row r="128">
@@ -20389,7 +20389,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00196</v>
+        <v>-0.00076</v>
       </c>
     </row>
     <row r="129">
@@ -20397,7 +20397,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-116.20157</v>
+        <v>-48.41816</v>
       </c>
     </row>
     <row r="130">
@@ -20405,7 +20405,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-116.20215</v>
+        <v>-48.41828</v>
       </c>
     </row>
     <row r="131">
@@ -20413,7 +20413,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-112.09058</v>
+        <v>-46.69983</v>
       </c>
     </row>
     <row r="132">
@@ -20421,7 +20421,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-112.09214</v>
+        <v>-46.70047</v>
       </c>
     </row>
     <row r="133">
@@ -20429,7 +20429,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-107.51431</v>
+        <v>-44.79794</v>
       </c>
     </row>
     <row r="134">
@@ -20437,7 +20437,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-107.51277</v>
+        <v>-44.80001</v>
       </c>
     </row>
     <row r="135">
@@ -20445,7 +20445,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-102.56218</v>
+        <v>-42.73378</v>
       </c>
     </row>
     <row r="136">
@@ -20453,7 +20453,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-102.56597</v>
+        <v>-42.73289</v>
       </c>
     </row>
     <row r="137">
@@ -20461,7 +20461,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-97.29940999999999</v>
+        <v>-40.54665</v>
       </c>
     </row>
     <row r="138">
@@ -20469,7 +20469,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-97.29940000000001</v>
+        <v>-40.54117</v>
       </c>
     </row>
   </sheetData>
@@ -20508,10 +20508,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>101.41</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="3">
@@ -20519,10 +20519,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-101.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>37.44</v>
       </c>
     </row>
   </sheetData>
@@ -20572,10 +20572,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.00017</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0.00413</v>
       </c>
     </row>
     <row r="4">
@@ -20583,10 +20583,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.00024</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="5">
@@ -20594,10 +20594,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.00027</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0.01182</v>
       </c>
     </row>
     <row r="6">
@@ -20605,10 +20605,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.00027</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-0.01461</v>
       </c>
     </row>
     <row r="7">
@@ -20616,10 +20616,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.00024</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-0.01652</v>
       </c>
     </row>
     <row r="8">
@@ -20627,10 +20627,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.00021</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0.01824</v>
       </c>
     </row>
     <row r="9">
@@ -20638,10 +20638,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.00018</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0.01976</v>
       </c>
     </row>
     <row r="10">
@@ -20649,10 +20649,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.00014</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.02113</v>
       </c>
     </row>
     <row r="11">
@@ -20660,10 +20660,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.00011</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0.02227</v>
       </c>
     </row>
     <row r="12">
@@ -20671,10 +20671,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="13">
@@ -20682,10 +20682,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0.02393</v>
       </c>
     </row>
     <row r="14">
@@ -20693,10 +20693,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-2e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0.02424</v>
       </c>
     </row>
     <row r="15">
@@ -20704,10 +20704,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-1e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0.02434</v>
       </c>
     </row>
     <row r="16">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="17">
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="18">
@@ -20737,10 +20737,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0.02416</v>
       </c>
     </row>
     <row r="19">
@@ -20748,10 +20748,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-0.02446</v>
       </c>
     </row>
     <row r="20">
@@ -20759,10 +20759,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="21">
@@ -20770,10 +20770,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0.02432</v>
       </c>
     </row>
     <row r="22">
@@ -20781,10 +20781,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0.02368</v>
       </c>
     </row>
     <row r="23">
@@ -20792,10 +20792,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0.02266</v>
       </c>
     </row>
     <row r="24">
@@ -20803,10 +20803,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.02137</v>
       </c>
     </row>
     <row r="25">
@@ -20814,10 +20814,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0.01982</v>
       </c>
     </row>
     <row r="26">
@@ -20825,10 +20825,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-0.01804</v>
       </c>
     </row>
     <row r="27">
@@ -20836,10 +20836,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0.01612</v>
       </c>
     </row>
     <row r="28">
@@ -20847,10 +20847,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.01401</v>
       </c>
     </row>
     <row r="29">
@@ -20858,10 +20858,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0.01168</v>
       </c>
     </row>
     <row r="30">
@@ -20869,10 +20869,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.00844</v>
       </c>
     </row>
     <row r="31">
@@ -20880,10 +20880,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="32">
@@ -20902,10 +20902,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.00165</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
     </row>
     <row r="34">
@@ -20913,10 +20913,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0.00174</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
     </row>
     <row r="35">
@@ -20924,10 +20924,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.00219</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.00417</v>
       </c>
     </row>
     <row r="36">
@@ -20935,10 +20935,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0.00434</v>
       </c>
     </row>
     <row r="37">
@@ -20946,10 +20946,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.00264</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-0.00813</v>
       </c>
     </row>
     <row r="38">
@@ -20957,10 +20957,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0.00225</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0.00848</v>
       </c>
     </row>
     <row r="39">
@@ -20968,10 +20968,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.00237</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.01185</v>
       </c>
     </row>
     <row r="40">
@@ -20979,10 +20979,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-0.00191</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.01172</v>
       </c>
     </row>
     <row r="41">
@@ -20990,10 +20990,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.00186</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0.01464</v>
       </c>
     </row>
     <row r="42">
@@ -21001,10 +21001,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.00045</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0.02407</v>
       </c>
     </row>
     <row r="43">
@@ -21012,10 +21012,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-0.00029</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="44">
@@ -21023,10 +21023,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0.00209</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-0.01403</v>
       </c>
     </row>
     <row r="45">
@@ -21034,10 +21034,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-0.02421</v>
       </c>
     </row>
     <row r="46">
@@ -21045,10 +21045,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-0.00023</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="47">
@@ -21056,10 +21056,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.00196</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-0.01654</v>
       </c>
     </row>
     <row r="48">
@@ -21067,10 +21067,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.00037</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-0.02421</v>
       </c>
     </row>
     <row r="49">
@@ -21078,10 +21078,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-0.00034</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="50">
@@ -21089,10 +21089,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-0.00222</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-0.01614</v>
       </c>
     </row>
     <row r="51">
@@ -21100,10 +21100,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.00065</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0.02395</v>
       </c>
     </row>
     <row r="52">
@@ -21111,10 +21111,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>-0.00026</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-0.02396</v>
       </c>
     </row>
     <row r="53">
@@ -21122,10 +21122,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.00203</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-0.01825</v>
       </c>
     </row>
     <row r="54">
@@ -21133,10 +21133,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-0.00233</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-0.01808</v>
       </c>
     </row>
     <row r="55">
@@ -21144,10 +21144,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.00206</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-0.01978</v>
       </c>
     </row>
     <row r="56">
@@ -21155,10 +21155,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-0.01983</v>
       </c>
     </row>
     <row r="57">
@@ -21166,10 +21166,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.00199</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.02111</v>
       </c>
     </row>
     <row r="58">
@@ -21177,10 +21177,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>-0.00236</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-0.02135</v>
       </c>
     </row>
     <row r="59">
@@ -21188,10 +21188,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.00189</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-0.02222</v>
       </c>
     </row>
     <row r="60">
@@ -21199,10 +21199,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-0.00228</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="61">
@@ -21210,10 +21210,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.00176</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-0.02311</v>
       </c>
     </row>
     <row r="62">
@@ -21221,10 +21221,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-0.00146</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-0.02366</v>
       </c>
     </row>
     <row r="63">
@@ -21232,10 +21232,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.00092</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-0.02389</v>
       </c>
     </row>
     <row r="64">
@@ -21243,10 +21243,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>-0.00059</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-0.02428</v>
       </c>
     </row>
     <row r="65">
@@ -21254,10 +21254,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.00078</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-0.02419</v>
       </c>
     </row>
     <row r="66">
@@ -21265,10 +21265,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-0.00043</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0.02445</v>
       </c>
     </row>
     <row r="67">
@@ -21276,10 +21276,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.00061</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-0.02428</v>
       </c>
     </row>
     <row r="68">
@@ -21287,10 +21287,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>-0.00024</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="69">
@@ -21298,10 +21298,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.00043</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-0.02423</v>
       </c>
     </row>
     <row r="70">
@@ -21309,10 +21309,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>-1e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-0.02408</v>
       </c>
     </row>
     <row r="71">
@@ -21320,10 +21320,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-0.02381</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/GUI_Truss2D/GUI_FULLTRUSS_1_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_FULLTRUSS_1_Solved.xlsx
@@ -1845,7 +1845,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>61.96498</v>
+        <v>61.965</v>
       </c>
     </row>
     <row r="34">
@@ -1853,7 +1853,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>61.9645</v>
+        <v>61.965</v>
       </c>
     </row>
     <row r="35">
@@ -1877,7 +1877,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>36.19162</v>
+        <v>36.19059</v>
       </c>
     </row>
     <row r="38">
@@ -1885,7 +1885,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>36.19262</v>
+        <v>36.19059</v>
       </c>
     </row>
     <row r="39">
@@ -1909,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>22.7649</v>
+        <v>22.76469</v>
       </c>
     </row>
     <row r="42">
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>22.76657</v>
+        <v>22.76469</v>
       </c>
     </row>
     <row r="43">
@@ -1941,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>14.56142</v>
+        <v>14.56048</v>
       </c>
     </row>
     <row r="46">
@@ -1949,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>14.56093</v>
+        <v>14.56048</v>
       </c>
     </row>
     <row r="47">
@@ -1965,7 +1965,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-56.43107</v>
+        <v>-56.43009</v>
       </c>
     </row>
     <row r="49">
@@ -1981,7 +1981,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>8.933020000000001</v>
+        <v>8.934480000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-10.08963</v>
+        <v>-10.08917</v>
       </c>
     </row>
     <row r="52">
@@ -1997,7 +1997,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-10.09184</v>
+        <v>-10.08917</v>
       </c>
     </row>
     <row r="53">
@@ -2005,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>8.93221</v>
+        <v>8.934480000000001</v>
       </c>
     </row>
     <row r="54">
@@ -2013,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-10.16365</v>
+        <v>-10.15972</v>
       </c>
     </row>
     <row r="55">
@@ -2021,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-56.43257</v>
+        <v>-56.43009</v>
       </c>
     </row>
     <row r="56">
@@ -2029,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-11.89016</v>
+        <v>-11.88975</v>
       </c>
     </row>
     <row r="57">
@@ -2037,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-11.88789</v>
+        <v>-11.88975</v>
       </c>
     </row>
     <row r="58">
@@ -2053,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4.72441</v>
+        <v>4.72386</v>
       </c>
     </row>
     <row r="60">
@@ -2061,7 +2061,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-13.60656</v>
+        <v>-13.60444</v>
       </c>
     </row>
     <row r="61">
@@ -2069,7 +2069,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-13.60699</v>
+        <v>-13.60444</v>
       </c>
     </row>
     <row r="62">
@@ -2077,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>4.72174</v>
+        <v>4.72386</v>
       </c>
     </row>
     <row r="63">
@@ -2093,7 +2093,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-15.26503</v>
+        <v>-15.2657</v>
       </c>
     </row>
     <row r="65">
@@ -2101,7 +2101,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-15.26386</v>
+        <v>-15.2657</v>
       </c>
     </row>
     <row r="66">
@@ -2109,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-87.18165999999999</v>
+        <v>-87.18092</v>
       </c>
     </row>
     <row r="67">
@@ -2117,7 +2117,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.74339</v>
+        <v>-3.74398</v>
       </c>
     </row>
     <row r="68">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1.36326</v>
+        <v>1.36031</v>
       </c>
     </row>
     <row r="69">
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-87.18000000000001</v>
+        <v>-87.18092</v>
       </c>
     </row>
     <row r="72">
@@ -2165,7 +2165,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.46542</v>
+        <v>-1.46451</v>
       </c>
     </row>
     <row r="74">
@@ -2173,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.46473</v>
+        <v>-1.46451</v>
       </c>
     </row>
     <row r="75">
@@ -2189,7 +2189,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-105.08253</v>
+        <v>-105.08187</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.24702</v>
+        <v>1.24771</v>
       </c>
     </row>
     <row r="78">
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.9352</v>
+        <v>-3.93338</v>
       </c>
     </row>
     <row r="79">
@@ -2213,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-3.93339</v>
+        <v>-3.93338</v>
       </c>
     </row>
     <row r="80">
@@ -2221,7 +2221,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1.24702</v>
+        <v>1.24771</v>
       </c>
     </row>
     <row r="81">
@@ -2229,7 +2229,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-105.08269</v>
+        <v>-105.08187</v>
       </c>
     </row>
     <row r="82">
@@ -2237,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>3.43184</v>
+        <v>3.43248</v>
       </c>
     </row>
     <row r="83">
@@ -2245,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.15139</v>
+        <v>-6.15007</v>
       </c>
     </row>
     <row r="84">
@@ -2253,7 +2253,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.1502</v>
+        <v>-6.15007</v>
       </c>
     </row>
     <row r="85">
@@ -2269,7 +2269,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-115.64593</v>
+        <v>-115.64863</v>
       </c>
     </row>
     <row r="87">
@@ -2277,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>5.47248</v>
+        <v>5.47274</v>
       </c>
     </row>
     <row r="88">
@@ -2285,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-8.185689999999999</v>
+        <v>-8.186439999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2293,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.18596</v>
+        <v>-8.186439999999999</v>
       </c>
     </row>
     <row r="90">
@@ -2309,7 +2309,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-115.64336</v>
+        <v>-115.64863</v>
       </c>
     </row>
     <row r="92">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-121.62394</v>
+        <v>-121.62591</v>
       </c>
     </row>
     <row r="95">
@@ -2357,7 +2357,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-121.62102</v>
+        <v>-121.62591</v>
       </c>
     </row>
     <row r="98">
@@ -2365,7 +2365,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>10.99886</v>
+        <v>10.99714</v>
       </c>
     </row>
     <row r="99">
@@ -2373,7 +2373,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>10.99886</v>
+        <v>10.99714</v>
       </c>
     </row>
     <row r="100">
@@ -2381,7 +2381,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-124.54447</v>
+        <v>-124.53889</v>
       </c>
     </row>
     <row r="101">
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>12.69901</v>
+        <v>12.70062</v>
       </c>
     </row>
     <row r="102">
@@ -2397,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>12.69901</v>
+        <v>12.70062</v>
       </c>
     </row>
     <row r="103">
@@ -2405,7 +2405,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-124.54463</v>
+        <v>-124.53889</v>
       </c>
     </row>
     <row r="104">
@@ -2421,7 +2421,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-125.32018</v>
+        <v>-125.32014</v>
       </c>
     </row>
     <row r="106">
@@ -2429,7 +2429,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-125.31895</v>
+        <v>-125.32014</v>
       </c>
     </row>
     <row r="107">
@@ -2437,7 +2437,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-124.53835</v>
+        <v>-124.54015</v>
       </c>
     </row>
     <row r="108">
@@ -2445,7 +2445,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-10.09066</v>
+        <v>-10.09015</v>
       </c>
     </row>
     <row r="109">
@@ -2453,7 +2453,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-10.0901</v>
+        <v>-10.09015</v>
       </c>
     </row>
     <row r="110">
@@ -2461,7 +2461,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-124.54297</v>
+        <v>-124.54015</v>
       </c>
     </row>
     <row r="111">
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00024</v>
+        <v>-0.00062</v>
       </c>
     </row>
     <row r="112">
@@ -2477,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.00023</v>
+        <v>-0.00062</v>
       </c>
     </row>
     <row r="113">
@@ -2485,7 +2485,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-11.88818</v>
+        <v>-11.88953</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2493,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-11.88872</v>
+        <v>-11.88953</v>
       </c>
     </row>
     <row r="115">
@@ -2501,7 +2501,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-122.59799</v>
+        <v>-122.5999</v>
       </c>
     </row>
     <row r="116">
@@ -2509,7 +2509,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-122.59753</v>
+        <v>-122.5999</v>
       </c>
     </row>
     <row r="117">
@@ -2517,7 +2517,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00323</v>
+        <v>-0.00027</v>
       </c>
     </row>
     <row r="118">
@@ -2525,7 +2525,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0016</v>
+        <v>-0.00027</v>
       </c>
     </row>
     <row r="119">
@@ -2533,7 +2533,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-13.60734</v>
+        <v>-13.60908</v>
       </c>
     </row>
     <row r="120">
@@ -2541,7 +2541,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-13.60715</v>
+        <v>-13.60908</v>
       </c>
     </row>
     <row r="121">
@@ -2549,7 +2549,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-119.75305</v>
+        <v>-119.753</v>
       </c>
     </row>
     <row r="122">
@@ -2557,7 +2557,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.00062</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="123">
@@ -2565,7 +2565,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.00242</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="124">
@@ -2573,7 +2573,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-119.75148</v>
+        <v>-119.753</v>
       </c>
     </row>
     <row r="125">
@@ -2581,7 +2581,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-15.26429</v>
+        <v>-15.26298</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-15.2673</v>
+        <v>-15.26298</v>
       </c>
     </row>
     <row r="127">
@@ -2597,7 +2597,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.00051</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="128">
@@ -2605,7 +2605,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00196</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="129">
@@ -2613,7 +2613,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-116.20157</v>
+        <v>-116.20013</v>
       </c>
     </row>
     <row r="130">
@@ -2621,7 +2621,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-116.20215</v>
+        <v>-116.20013</v>
       </c>
     </row>
     <row r="131">
@@ -2629,7 +2629,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-112.09058</v>
+        <v>-112.08814</v>
       </c>
     </row>
     <row r="132">
@@ -2637,7 +2637,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-112.09214</v>
+        <v>-112.08814</v>
       </c>
     </row>
     <row r="133">
@@ -2645,7 +2645,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-107.51431</v>
+        <v>-107.51538</v>
       </c>
     </row>
     <row r="134">
@@ -2653,7 +2653,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-107.51277</v>
+        <v>-107.51538</v>
       </c>
     </row>
     <row r="135">
@@ -2661,7 +2661,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-102.56218</v>
+        <v>-102.56522</v>
       </c>
     </row>
     <row r="136">
@@ -2669,7 +2669,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-102.56597</v>
+        <v>-102.56522</v>
       </c>
     </row>
     <row r="137">
@@ -2677,7 +2677,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-97.29940999999999</v>
+        <v>-97.29718</v>
       </c>
     </row>
     <row r="138">
@@ -2685,7 +2685,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-97.29940000000001</v>
+        <v>-97.29718</v>
       </c>
     </row>
   </sheetData>
@@ -2724,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-463.74</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-187.941</v>
       </c>
     </row>
     <row r="3">
@@ -2735,10 +2735,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>463.74</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-154.479</v>
       </c>
     </row>
   </sheetData>
@@ -2788,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.00077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01045</v>
       </c>
     </row>
     <row r="4">
@@ -2799,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.00107</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.02023</v>
       </c>
     </row>
     <row r="5">
@@ -2810,10 +2810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.00113</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="6">
@@ -2821,10 +2821,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.00105</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.03665</v>
       </c>
     </row>
     <row r="7">
@@ -2832,10 +2832,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.00088</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.04321</v>
       </c>
     </row>
     <row r="8">
@@ -2843,10 +2843,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.00067</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.04895</v>
       </c>
     </row>
     <row r="9">
@@ -2854,10 +2854,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.00043</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.05367</v>
       </c>
     </row>
     <row r="10">
@@ -2865,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.05719</v>
       </c>
     </row>
     <row r="11">
@@ -2876,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.05953</v>
       </c>
     </row>
     <row r="12">
@@ -2887,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.00022</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.06073</v>
       </c>
     </row>
     <row r="13">
@@ -2898,10 +2898,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.00039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.06199</v>
       </c>
     </row>
     <row r="14">
@@ -2909,10 +2909,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.00053</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="15">
@@ -2920,10 +2920,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.00062</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.06262</v>
       </c>
     </row>
     <row r="16">
@@ -2931,10 +2931,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.00068</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.06207</v>
       </c>
     </row>
     <row r="17">
@@ -2942,10 +2942,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.00068</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.06101</v>
       </c>
     </row>
     <row r="18">
@@ -2953,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.00067</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.06098</v>
       </c>
     </row>
     <row r="19">
@@ -2964,10 +2964,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.00069</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.06052</v>
       </c>
     </row>
     <row r="20">
@@ -2975,10 +2975,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.00073</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="21">
@@ -2986,10 +2986,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.05819</v>
       </c>
     </row>
     <row r="22">
@@ -2997,10 +2997,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.00088</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.05626</v>
       </c>
     </row>
     <row r="23">
@@ -3008,10 +3008,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0.00098</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.05411</v>
       </c>
     </row>
     <row r="24">
@@ -3019,10 +3019,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0.00108</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.05111</v>
       </c>
     </row>
     <row r="25">
@@ -3030,10 +3030,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-0.00119</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.04723</v>
       </c>
     </row>
     <row r="26">
@@ -3041,10 +3041,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.00128</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.04246</v>
       </c>
     </row>
     <row r="27">
@@ -3052,10 +3052,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-0.00135</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.03701</v>
       </c>
     </row>
     <row r="28">
@@ -3063,10 +3063,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-0.00138</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.03107</v>
       </c>
     </row>
     <row r="29">
@@ -3074,10 +3074,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0.00133</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.02432</v>
       </c>
     </row>
     <row r="30">
@@ -3085,10 +3085,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0.00115</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.01677</v>
       </c>
     </row>
     <row r="31">
@@ -3096,10 +3096,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-0.00077</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.00855</v>
       </c>
     </row>
     <row r="32">
@@ -3118,10 +3118,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-0.00337</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="34">
@@ -3129,10 +3129,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.00261</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="35">
@@ -3140,10 +3140,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0.00458</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.01065</v>
       </c>
     </row>
     <row r="36">
@@ -3151,10 +3151,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.00872</v>
       </c>
     </row>
     <row r="37">
@@ -3162,10 +3162,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0.00543</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.02041</v>
       </c>
     </row>
     <row r="38">
@@ -3173,10 +3173,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.00432</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01692</v>
       </c>
     </row>
     <row r="39">
@@ -3184,10 +3184,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0.00596</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.02915</v>
       </c>
     </row>
     <row r="40">
@@ -3195,10 +3195,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.00479</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.02445</v>
       </c>
     </row>
     <row r="41">
@@ -3206,10 +3206,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-0.00623</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.03678</v>
       </c>
     </row>
     <row r="42">
@@ -3217,10 +3217,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-0.00199</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.06214</v>
       </c>
     </row>
     <row r="43">
@@ -3228,10 +3228,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.00114</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.05888</v>
       </c>
     </row>
     <row r="44">
@@ -3239,10 +3239,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.00506</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.03118</v>
       </c>
     </row>
     <row r="45">
@@ -3250,10 +3250,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-0.00182</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.06234</v>
       </c>
     </row>
     <row r="46">
@@ -3261,10 +3261,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.05996</v>
       </c>
     </row>
     <row r="47">
@@ -3272,10 +3272,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-0.00627</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="48">
@@ -3283,10 +3283,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-0.00164</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.06196</v>
       </c>
     </row>
     <row r="49">
@@ -3294,10 +3294,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.00079</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.06057</v>
       </c>
     </row>
     <row r="50">
@@ -3305,10 +3305,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.00515</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="51">
@@ -3316,10 +3316,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.06087</v>
       </c>
     </row>
     <row r="52">
@@ -3327,10 +3327,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.00132</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.06047</v>
       </c>
     </row>
     <row r="53">
@@ -3338,10 +3338,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>-0.00618</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.04912</v>
       </c>
     </row>
     <row r="54">
@@ -3349,10 +3349,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>0.00516</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.04269</v>
       </c>
     </row>
     <row r="55">
@@ -3360,10 +3360,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-0.00588</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.05368</v>
       </c>
     </row>
     <row r="56">
@@ -3371,10 +3371,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.00501</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.04735</v>
       </c>
     </row>
     <row r="57">
@@ -3382,10 +3382,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-0.00539</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.05702</v>
       </c>
     </row>
     <row r="58">
@@ -3393,10 +3393,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.00472</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.05111</v>
       </c>
     </row>
     <row r="59">
@@ -3404,10 +3404,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-0.00474</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.05917</v>
       </c>
     </row>
     <row r="60">
@@ -3415,10 +3415,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.00428</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.05398</v>
       </c>
     </row>
     <row r="61">
@@ -3426,10 +3426,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-0.00399</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.06057</v>
       </c>
     </row>
     <row r="62">
@@ -3437,10 +3437,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.00376</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.05619</v>
       </c>
     </row>
     <row r="63">
@@ -3448,10 +3448,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>-0.00324</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.06177</v>
       </c>
     </row>
     <row r="64">
@@ -3459,10 +3459,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.05807</v>
       </c>
     </row>
     <row r="65">
@@ -3470,10 +3470,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>-0.00243</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.06231</v>
       </c>
     </row>
     <row r="66">
@@ -3481,10 +3481,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.00258</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.05943</v>
       </c>
     </row>
     <row r="67">
@@ -3492,10 +3492,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-0.00157</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.06225</v>
       </c>
     </row>
     <row r="68">
@@ -3503,10 +3503,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="69">
@@ -3514,10 +3514,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-0.00066</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.06162</v>
       </c>
     </row>
     <row r="70">
@@ -3525,10 +3525,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.00118</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.06071</v>
       </c>
     </row>
     <row r="71">
@@ -3536,10 +3536,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.06015</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>463.74166</v>
       </c>
     </row>
     <row r="3">
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>184.98002</v>
       </c>
     </row>
     <row r="4">
@@ -3589,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>34.52065</v>
       </c>
     </row>
     <row r="5">
@@ -3597,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-51.77795</v>
       </c>
     </row>
     <row r="6">
@@ -3605,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-101.41785</v>
       </c>
     </row>
     <row r="7">
@@ -3613,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-128.16085</v>
       </c>
     </row>
     <row r="8">
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-139.61133</v>
       </c>
     </row>
     <row r="9">
@@ -3629,7 +3629,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-140.38009</v>
       </c>
     </row>
     <row r="10">
@@ -3637,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-133.3755</v>
       </c>
     </row>
     <row r="11">
@@ -3645,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-120.5292</v>
       </c>
     </row>
     <row r="12">
@@ -3653,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-103.20644</v>
       </c>
     </row>
     <row r="13">
@@ -3661,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-82.34681999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3669,7 +3669,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-58.67845</v>
       </c>
     </row>
     <row r="15">
@@ -3677,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-32.72031</v>
       </c>
     </row>
     <row r="16">
@@ -3685,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-4.86419</v>
       </c>
     </row>
     <row r="17">
@@ -3693,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.44732</v>
       </c>
     </row>
     <row r="18">
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-10.3992</v>
       </c>
     </row>
     <row r="19">
@@ -3709,7 +3709,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-25.71676</v>
       </c>
     </row>
     <row r="20">
@@ -3717,7 +3717,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-39.19148</v>
       </c>
     </row>
     <row r="21">
@@ -3725,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-50.37659</v>
       </c>
     </row>
     <row r="22">
@@ -3733,7 +3733,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-58.73283</v>
       </c>
     </row>
     <row r="23">
@@ -3741,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-63.45201</v>
       </c>
     </row>
     <row r="24">
@@ -3749,7 +3749,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-63.47679</v>
       </c>
     </row>
     <row r="25">
@@ -3757,7 +3757,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-57.21013</v>
       </c>
     </row>
     <row r="26">
@@ -3765,7 +3765,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-42.32148</v>
       </c>
     </row>
     <row r="27">
@@ -3773,7 +3773,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-15.09424</v>
       </c>
     </row>
     <row r="28">
@@ -3781,7 +3781,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>30.62325</v>
       </c>
     </row>
     <row r="29">
@@ -3789,7 +3789,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>105.93663</v>
       </c>
     </row>
     <row r="30">
@@ -3797,7 +3797,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>233.04836</v>
       </c>
     </row>
     <row r="31">
@@ -3805,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>463.74166</v>
       </c>
     </row>
     <row r="32">
@@ -3813,7 +3813,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>187.94488</v>
       </c>
     </row>
     <row r="33">
@@ -3821,7 +3821,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-310.09364</v>
       </c>
     </row>
     <row r="34">
@@ -3829,7 +3829,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-256.62222</v>
       </c>
     </row>
     <row r="35">
@@ -3837,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>154.4834</v>
       </c>
     </row>
     <row r="36">
@@ -3845,7 +3845,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>135.83296</v>
       </c>
     </row>
     <row r="37">
@@ -3853,7 +3853,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-179.42395</v>
       </c>
     </row>
     <row r="38">
@@ -3861,7 +3861,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-151.58337</v>
       </c>
     </row>
     <row r="39">
@@ -3869,7 +3869,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>112.41325</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.75774</v>
       </c>
     </row>
     <row r="41">
@@ -3885,7 +3885,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-111.18129</v>
       </c>
     </row>
     <row r="42">
@@ -3893,7 +3893,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-97.02564</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>82.58872</v>
       </c>
     </row>
     <row r="44">
@@ -3909,7 +3909,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>70.08774</v>
       </c>
     </row>
     <row r="45">
@@ -3917,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-69.32058000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3925,7 +3925,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-63.8415</v>
       </c>
     </row>
     <row r="47">
@@ -3933,7 +3933,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>61.1659</v>
       </c>
     </row>
     <row r="48">
@@ -3941,7 +3941,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>282.40916</v>
       </c>
     </row>
     <row r="49">
@@ -3949,7 +3949,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>48.38429</v>
       </c>
     </row>
     <row r="50">
@@ -3957,7 +3957,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-40.48242</v>
       </c>
     </row>
     <row r="51">
@@ -3965,7 +3965,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>58.8117</v>
       </c>
     </row>
     <row r="52">
@@ -3973,7 +3973,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>33.46235</v>
       </c>
     </row>
     <row r="53">
@@ -3981,7 +3981,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>-41.22362</v>
       </c>
     </row>
     <row r="54">
@@ -3989,7 +3989,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>44.56066</v>
       </c>
     </row>
     <row r="55">
@@ -3997,7 +3997,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>233.71275</v>
       </c>
     </row>
     <row r="56">
@@ -4005,7 +4005,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>68.38391</v>
       </c>
     </row>
     <row r="57">
@@ -4013,7 +4013,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>40.34914</v>
       </c>
     </row>
     <row r="58">
@@ -4021,7 +4021,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>30.39983</v>
       </c>
     </row>
     <row r="59">
@@ -4029,7 +4029,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-18.78742</v>
       </c>
     </row>
     <row r="60">
@@ -4037,7 +4037,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>77.55016999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4045,7 +4045,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>46.90116</v>
       </c>
     </row>
     <row r="62">
@@ -4053,7 +4053,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-24.41751</v>
       </c>
     </row>
     <row r="63">
@@ -4061,7 +4061,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>30.9563</v>
       </c>
     </row>
     <row r="64">
@@ -4069,7 +4069,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>86.41145</v>
       </c>
     </row>
     <row r="65">
@@ -4077,7 +4077,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>53.19652</v>
       </c>
     </row>
     <row r="66">
@@ -4085,7 +4085,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>434.84432</v>
       </c>
     </row>
     <row r="67">
@@ -4093,7 +4093,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>14.88801</v>
       </c>
     </row>
     <row r="68">
@@ -4101,7 +4101,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>-1.35615</v>
       </c>
     </row>
     <row r="69">
@@ -4109,7 +4109,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-11.08666</v>
       </c>
     </row>
     <row r="70">
@@ -4117,7 +4117,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>19.34968</v>
       </c>
     </row>
     <row r="71">
@@ -4125,7 +4125,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>362.49058</v>
       </c>
     </row>
     <row r="72">
@@ -4133,7 +4133,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1.11913</v>
       </c>
     </row>
     <row r="73">
@@ -4141,7 +4141,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>13.36606</v>
       </c>
     </row>
     <row r="74">
@@ -4149,7 +4149,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.03019</v>
       </c>
     </row>
     <row r="75">
@@ -4157,7 +4157,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>9.150119999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4165,7 +4165,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>522.27424</v>
       </c>
     </row>
     <row r="77">
@@ -4173,7 +4173,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>-11.38297</v>
       </c>
     </row>
     <row r="78">
@@ -4181,7 +4181,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>26.29505</v>
       </c>
     </row>
     <row r="79">
@@ -4189,7 +4189,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>9.678419999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4197,7 +4197,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>-0.02559</v>
       </c>
     </row>
     <row r="81">
@@ -4205,7 +4205,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>438.78921</v>
       </c>
     </row>
     <row r="82">
@@ -4213,7 +4213,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-22.94573</v>
       </c>
     </row>
     <row r="83">
@@ -4221,7 +4221,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>37.96165</v>
       </c>
     </row>
     <row r="84">
@@ -4229,7 +4229,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>18.28931</v>
       </c>
     </row>
     <row r="85">
@@ -4237,7 +4237,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>-8.445510000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4245,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>572.57112</v>
       </c>
     </row>
     <row r="87">
@@ -4253,7 +4253,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>-33.7771</v>
       </c>
     </row>
     <row r="88">
@@ -4261,7 +4261,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>48.71539</v>
       </c>
     </row>
     <row r="89">
@@ -4269,7 +4269,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>26.15084</v>
       </c>
     </row>
     <row r="90">
@@ -4277,7 +4277,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>-16.27236</v>
       </c>
     </row>
     <row r="91">
@@ -4285,7 +4285,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>485.11336</v>
       </c>
     </row>
     <row r="92">
@@ -4293,7 +4293,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>-44.03087</v>
       </c>
     </row>
     <row r="93">
@@ -4301,7 +4301,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>-23.63283</v>
       </c>
     </row>
     <row r="94">
@@ -4309,7 +4309,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>599.65342</v>
       </c>
     </row>
     <row r="95">
@@ -4317,7 +4317,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>-53.83332</v>
       </c>
     </row>
     <row r="96">
@@ -4325,7 +4325,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>-30.63287</v>
       </c>
     </row>
     <row r="97">
@@ -4333,7 +4333,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>512.69498</v>
       </c>
     </row>
     <row r="98">
@@ -4341,7 +4341,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-63.25888</v>
       </c>
     </row>
     <row r="99">
@@ -4349,7 +4349,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-37.32638</v>
       </c>
     </row>
     <row r="100">
@@ -4357,7 +4357,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>611.25877</v>
       </c>
     </row>
     <row r="101">
@@ -4365,7 +4365,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>-72.37756</v>
       </c>
     </row>
     <row r="102">
@@ -4373,7 +4373,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>-43.77084</v>
       </c>
     </row>
     <row r="103">
@@ -4381,7 +4381,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>527.77742</v>
       </c>
     </row>
     <row r="104">
@@ -4389,7 +4389,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>-131.26433</v>
       </c>
     </row>
     <row r="105">
@@ -4397,7 +4397,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>612.04038</v>
       </c>
     </row>
     <row r="106">
@@ -4405,7 +4405,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>534.12312</v>
       </c>
     </row>
     <row r="107">
@@ -4413,7 +4413,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>604.9363</v>
       </c>
     </row>
     <row r="108">
@@ -4421,7 +4421,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>58.8064</v>
       </c>
     </row>
     <row r="109">
@@ -4429,7 +4429,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>33.46688</v>
       </c>
     </row>
     <row r="110">
@@ -4437,7 +4437,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>534.10223</v>
       </c>
     </row>
     <row r="111">
@@ -4445,7 +4445,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.00108</v>
       </c>
     </row>
     <row r="112">
@@ -4453,7 +4453,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="113">
@@ -4461,7 +4461,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>68.38074</v>
       </c>
     </row>
     <row r="114">
@@ -4469,7 +4469,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>40.35096</v>
       </c>
     </row>
     <row r="115">
@@ -4477,7 +4477,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>591.93134</v>
       </c>
     </row>
     <row r="116">
@@ -4485,7 +4485,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>529.3155</v>
       </c>
     </row>
     <row r="117">
@@ -4493,7 +4493,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>-0.00057</v>
       </c>
     </row>
     <row r="118">
@@ -4501,7 +4501,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-0.00044</v>
       </c>
     </row>
     <row r="119">
@@ -4509,7 +4509,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>77.55154</v>
       </c>
     </row>
     <row r="120">
@@ -4517,7 +4517,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>46.89989</v>
       </c>
     </row>
     <row r="121">
@@ -4525,7 +4525,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>574.37114</v>
       </c>
     </row>
     <row r="122">
@@ -4533,7 +4533,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>-0.00012</v>
       </c>
     </row>
     <row r="123">
@@ -4541,7 +4541,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>-0.00062</v>
       </c>
     </row>
     <row r="124">
@@ -4549,7 +4549,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>520.86411</v>
       </c>
     </row>
     <row r="125">
@@ -4557,7 +4557,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>86.41217</v>
       </c>
     </row>
     <row r="126">
@@ -4565,7 +4565,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>53.19461</v>
       </c>
     </row>
     <row r="127">
@@ -4573,7 +4573,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="128">
@@ -4581,7 +4581,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="129">
@@ -4589,7 +4589,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>553.24837</v>
       </c>
     </row>
     <row r="130">
@@ -4597,7 +4597,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>509.51468</v>
       </c>
     </row>
     <row r="131">
@@ -4605,7 +4605,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>529.26513</v>
       </c>
     </row>
     <row r="132">
@@ -4613,7 +4613,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>495.87475</v>
       </c>
     </row>
     <row r="133">
@@ -4621,7 +4621,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>502.96318</v>
       </c>
     </row>
     <row r="134">
@@ -4629,7 +4629,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>480.34923</v>
       </c>
     </row>
     <row r="135">
@@ -4637,7 +4637,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>474.7428</v>
       </c>
     </row>
     <row r="136">
@@ -4645,7 +4645,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>463.28859</v>
       </c>
     </row>
     <row r="137">
@@ -4653,7 +4653,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>444.93752</v>
       </c>
     </row>
     <row r="138">
@@ -4661,7 +4661,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>444.94202</v>
       </c>
     </row>
   </sheetData>
@@ -8652,10 +8652,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>47.263</v>
+        <v>44.346</v>
       </c>
       <c r="C2" t="n">
-        <v>16.394</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="3">
@@ -8663,10 +8663,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-47.263</v>
+        <v>-44.346</v>
       </c>
       <c r="C3" t="n">
-        <v>15.586</v>
+        <v>15.32</v>
       </c>
     </row>
   </sheetData>
@@ -14697,10 +14697,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.000000000000001e-05</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0019</v>
+        <v>-0.00087</v>
       </c>
     </row>
     <row r="4">
@@ -14708,10 +14708,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00012</v>
+        <v>-0.00011</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00374</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="5">
@@ -14719,10 +14719,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00013</v>
+        <v>-0.00012</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00547</v>
+        <v>-0.00245</v>
       </c>
     </row>
     <row r="6">
@@ -14730,10 +14730,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00013</v>
+        <v>-0.00012</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00679</v>
+        <v>-0.00313</v>
       </c>
     </row>
     <row r="7">
@@ -14744,7 +14744,7 @@
         <v>-0.00012</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0077</v>
+        <v>-0.00372</v>
       </c>
     </row>
     <row r="8">
@@ -14755,7 +14755,7 @@
         <v>-0.00011</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.008529999999999999</v>
+        <v>-0.00426</v>
       </c>
     </row>
     <row r="9">
@@ -14763,10 +14763,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.0001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.009259999999999999</v>
+        <v>-0.00473</v>
       </c>
     </row>
     <row r="10">
@@ -14774,10 +14774,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-8.000000000000001e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00993</v>
+        <v>-0.00512</v>
       </c>
     </row>
     <row r="11">
@@ -14785,10 +14785,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-5e-05</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01048</v>
+        <v>-0.00542</v>
       </c>
     </row>
     <row r="12">
@@ -14796,10 +14796,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-4e-05</v>
+        <v>-5e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01094</v>
+        <v>-0.00565</v>
       </c>
     </row>
     <row r="13">
@@ -14807,10 +14807,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-2e-05</v>
+        <v>-4e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0113</v>
+        <v>-0.00583</v>
       </c>
     </row>
     <row r="14">
@@ -14818,10 +14818,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>-2e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01146</v>
+        <v>-0.00595</v>
       </c>
     </row>
     <row r="15">
@@ -14829,10 +14829,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1e-05</v>
+        <v>-1e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01151</v>
+        <v>-0.00601</v>
       </c>
     </row>
     <row r="16">
@@ -14840,10 +14840,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2e-05</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01148</v>
+        <v>-0.00602</v>
       </c>
     </row>
     <row r="17">
@@ -14851,10 +14851,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01131</v>
+        <v>-0.00597</v>
       </c>
     </row>
     <row r="18">
@@ -14862,10 +14862,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01137</v>
+        <v>-0.00602</v>
       </c>
     </row>
     <row r="19">
@@ -14873,10 +14873,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01146</v>
+        <v>-0.00601</v>
       </c>
     </row>
     <row r="20">
@@ -14884,10 +14884,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01143</v>
+        <v>-0.00595</v>
       </c>
     </row>
     <row r="21">
@@ -14895,10 +14895,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01131</v>
+        <v>-0.00583</v>
       </c>
     </row>
     <row r="22">
@@ -14906,10 +14906,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01096</v>
+        <v>-0.00565</v>
       </c>
     </row>
     <row r="23">
@@ -14917,10 +14917,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01039</v>
+        <v>-0.00542</v>
       </c>
     </row>
     <row r="24">
@@ -14928,10 +14928,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.009719999999999999</v>
+        <v>-0.00512</v>
       </c>
     </row>
     <row r="25">
@@ -14939,10 +14939,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00895</v>
+        <v>-0.00473</v>
       </c>
     </row>
     <row r="26">
@@ -14950,10 +14950,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00809</v>
+        <v>-0.00426</v>
       </c>
     </row>
     <row r="27">
@@ -14961,10 +14961,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00014</v>
+        <v>0.00012</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0072</v>
+        <v>-0.00372</v>
       </c>
     </row>
     <row r="28">
@@ -14972,10 +14972,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00014</v>
+        <v>0.00012</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00622</v>
+        <v>-0.00313</v>
       </c>
     </row>
     <row r="29">
@@ -14983,10 +14983,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00014</v>
+        <v>0.00012</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00515</v>
+        <v>-0.00245</v>
       </c>
     </row>
     <row r="30">
@@ -14994,10 +14994,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0037</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="31">
@@ -15005,10 +15005,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00188</v>
+        <v>-0.00087</v>
       </c>
     </row>
     <row r="32">
@@ -15027,7 +15027,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00076</v>
+        <v>0.00027</v>
       </c>
       <c r="C33" t="n">
         <v>-2e-05</v>
@@ -15038,7 +15038,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00076</v>
+        <v>-0.00027</v>
       </c>
       <c r="C34" t="n">
         <v>-2e-05</v>
@@ -15049,10 +15049,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00101</v>
+        <v>0.00037</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00192</v>
+        <v>-0.00088</v>
       </c>
     </row>
     <row r="36">
@@ -15060,10 +15060,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00101</v>
+        <v>-0.00037</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00189</v>
+        <v>-0.00088</v>
       </c>
     </row>
     <row r="37">
@@ -15071,10 +15071,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00122</v>
+        <v>0.00044</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00375</v>
+        <v>-0.00171</v>
       </c>
     </row>
     <row r="38">
@@ -15082,10 +15082,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00099</v>
+        <v>-0.00044</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00371</v>
+        <v>-0.00171</v>
       </c>
     </row>
     <row r="39">
@@ -15093,10 +15093,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00111</v>
+        <v>0.00049</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00548</v>
+        <v>-0.00247</v>
       </c>
     </row>
     <row r="40">
@@ -15104,10 +15104,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00085</v>
+        <v>-0.00049</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00517</v>
+        <v>-0.00247</v>
       </c>
     </row>
     <row r="41">
@@ -15115,10 +15115,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00088</v>
+        <v>0.00052</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0068</v>
+        <v>-0.00314</v>
       </c>
     </row>
     <row r="42">
@@ -15126,10 +15126,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00021</v>
+        <v>0.00014</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01138</v>
+        <v>-0.00589</v>
       </c>
     </row>
     <row r="43">
@@ -15137,10 +15137,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00011</v>
+        <v>-0.00014</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01137</v>
+        <v>-0.00589</v>
       </c>
     </row>
     <row r="44">
@@ -15148,10 +15148,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00094</v>
+        <v>-0.00052</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00623</v>
+        <v>-0.00314</v>
       </c>
     </row>
     <row r="45">
@@ -15159,10 +15159,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0002</v>
+        <v>0.00013</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01145</v>
+        <v>-0.00597</v>
       </c>
     </row>
     <row r="46">
@@ -15170,10 +15170,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.00013</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01142</v>
+        <v>-0.00597</v>
       </c>
     </row>
     <row r="47">
@@ -15181,10 +15181,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00053</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00771</v>
+        <v>-0.00373</v>
       </c>
     </row>
     <row r="48">
@@ -15192,10 +15192,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00018</v>
+        <v>0.00011</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01144</v>
+        <v>-0.00599</v>
       </c>
     </row>
     <row r="49">
@@ -15203,10 +15203,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00014</v>
+        <v>-0.00011</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01137</v>
+        <v>-0.00599</v>
       </c>
     </row>
     <row r="50">
@@ -15214,10 +15214,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00101</v>
+        <v>-0.00053</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.00721</v>
+        <v>-0.00373</v>
       </c>
     </row>
     <row r="51">
@@ -15225,10 +15225,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00032</v>
+        <v>0.00016</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0113</v>
+        <v>-0.00593</v>
       </c>
     </row>
     <row r="52">
@@ -15236,10 +15236,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00013</v>
+        <v>-0.00016</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01128</v>
+        <v>-0.00593</v>
       </c>
     </row>
     <row r="53">
@@ -15247,10 +15247,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00053</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.008529999999999999</v>
+        <v>-0.00428</v>
       </c>
     </row>
     <row r="54">
@@ -15258,10 +15258,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.00106</v>
+        <v>-0.00053</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00812</v>
+        <v>-0.00428</v>
       </c>
     </row>
     <row r="55">
@@ -15269,10 +15269,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00099</v>
+        <v>0.00051</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.00927</v>
+        <v>-0.00474</v>
       </c>
     </row>
     <row r="56">
@@ -15280,10 +15280,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.00111</v>
+        <v>-0.00051</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.008959999999999999</v>
+        <v>-0.00474</v>
       </c>
     </row>
     <row r="57">
@@ -15291,10 +15291,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00096</v>
+        <v>0.00048</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.00992</v>
+        <v>-0.00512</v>
       </c>
     </row>
     <row r="58">
@@ -15302,10 +15302,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0011</v>
+        <v>-0.00048</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.009719999999999999</v>
+        <v>-0.00512</v>
       </c>
     </row>
     <row r="59">
@@ -15313,10 +15313,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00091</v>
+        <v>0.00044</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01046</v>
+        <v>-0.00541</v>
       </c>
     </row>
     <row r="60">
@@ -15324,10 +15324,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00108</v>
+        <v>-0.00044</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.01038</v>
+        <v>-0.00541</v>
       </c>
     </row>
     <row r="61">
@@ -15335,10 +15335,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00085</v>
+        <v>0.00038</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.01091</v>
+        <v>-0.00564</v>
       </c>
     </row>
     <row r="62">
@@ -15346,10 +15346,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.0007</v>
+        <v>-0.00038</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.01095</v>
+        <v>-0.00564</v>
       </c>
     </row>
     <row r="63">
@@ -15357,10 +15357,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00044</v>
+        <v>0.00032</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01129</v>
+        <v>-0.00582</v>
       </c>
     </row>
     <row r="64">
@@ -15368,10 +15368,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.00029</v>
+        <v>-0.00032</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0113</v>
+        <v>-0.00582</v>
       </c>
     </row>
     <row r="65">
@@ -15379,10 +15379,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00037</v>
+        <v>0.00025</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01143</v>
+        <v>-0.00593</v>
       </c>
     </row>
     <row r="66">
@@ -15390,10 +15390,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00022</v>
+        <v>-0.00025</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01141</v>
+        <v>-0.00593</v>
       </c>
     </row>
     <row r="67">
@@ -15401,10 +15401,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00028</v>
+        <v>0.00018</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01148</v>
+        <v>-0.00599</v>
       </c>
     </row>
     <row r="68">
@@ -15412,10 +15412,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.00014</v>
+        <v>-0.00018</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01144</v>
+        <v>-0.00599</v>
       </c>
     </row>
     <row r="69">
@@ -15423,10 +15423,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00019</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01144</v>
+        <v>-0.00598</v>
       </c>
     </row>
     <row r="70">
@@ -15434,10 +15434,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-3e-05</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01133</v>
+        <v>-0.00598</v>
       </c>
     </row>
     <row r="71">
@@ -15445,10 +15445,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>-0</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.01121</v>
+        <v>-0.00588</v>
       </c>
     </row>
   </sheetData>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-47.26422</v>
+        <v>-44.34571</v>
       </c>
     </row>
     <row r="3">
@@ -17413,7 +17413,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-22.62928</v>
+        <v>-21.41473</v>
       </c>
     </row>
     <row r="4">
@@ -17421,7 +17421,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.77971</v>
+        <v>-8.64678</v>
       </c>
     </row>
     <row r="5">
@@ -17429,7 +17429,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.29004</v>
+        <v>-1.01514</v>
       </c>
     </row>
     <row r="6">
@@ -17437,7 +17437,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.13615</v>
+        <v>3.6376</v>
       </c>
     </row>
     <row r="7">
@@ -17445,7 +17445,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.49572</v>
+        <v>6.39898</v>
       </c>
     </row>
     <row r="8">
@@ -17453,7 +17453,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.38701</v>
+        <v>7.92772</v>
       </c>
     </row>
     <row r="9">
@@ -17461,7 +17461,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.22098</v>
+        <v>8.75563</v>
       </c>
     </row>
     <row r="10">
@@ -17469,7 +17469,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.34776</v>
+        <v>9.07579</v>
       </c>
     </row>
     <row r="11">
@@ -17477,7 +17477,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.96105</v>
+        <v>9.00328</v>
       </c>
     </row>
     <row r="12">
@@ -17485,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.12728</v>
+        <v>8.610609999999999</v>
       </c>
     </row>
     <row r="13">
@@ -17493,7 +17493,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.97911</v>
+        <v>7.78875</v>
       </c>
     </row>
     <row r="14">
@@ -17501,7 +17501,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.40203</v>
+        <v>6.52587</v>
       </c>
     </row>
     <row r="15">
@@ -17509,7 +17509,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.44432</v>
+        <v>4.86424</v>
       </c>
     </row>
     <row r="16">
@@ -17517,7 +17517,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.13</v>
+        <v>2.83392</v>
       </c>
     </row>
     <row r="17">
@@ -17525,7 +17525,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.91851</v>
+        <v>2.83392</v>
       </c>
     </row>
     <row r="18">
@@ -17533,7 +17533,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.93071</v>
+        <v>4.86424</v>
       </c>
     </row>
     <row r="19">
@@ -17541,7 +17541,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6.53191</v>
+        <v>6.52587</v>
       </c>
     </row>
     <row r="20">
@@ -17549,7 +17549,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>7.64373</v>
+        <v>7.78875</v>
       </c>
     </row>
     <row r="21">
@@ -17557,7 +17557,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>8.278269999999999</v>
+        <v>8.610609999999999</v>
       </c>
     </row>
     <row r="22">
@@ -17565,7 +17565,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>8.531969999999999</v>
+        <v>9.00328</v>
       </c>
     </row>
     <row r="23">
@@ -17573,7 +17573,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>8.51989</v>
+        <v>9.07579</v>
       </c>
     </row>
     <row r="24">
@@ -17581,7 +17581,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>8.13325</v>
+        <v>8.75563</v>
       </c>
     </row>
     <row r="25">
@@ -17589,7 +17589,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>7.24492</v>
+        <v>7.92772</v>
       </c>
     </row>
     <row r="26">
@@ -17597,7 +17597,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5.54095</v>
+        <v>6.39898</v>
       </c>
     </row>
     <row r="27">
@@ -17605,7 +17605,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2.47744</v>
+        <v>3.6376</v>
       </c>
     </row>
     <row r="28">
@@ -17613,7 +17613,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.59222</v>
+        <v>-1.01514</v>
       </c>
     </row>
     <row r="29">
@@ -17621,7 +17621,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-10.68913</v>
+        <v>-8.64678</v>
       </c>
     </row>
     <row r="30">
@@ -17629,7 +17629,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.87404</v>
+        <v>-21.41473</v>
       </c>
     </row>
     <row r="31">
@@ -17637,7 +17637,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-47.26422</v>
+        <v>-44.34571</v>
       </c>
     </row>
     <row r="32">
@@ -17645,7 +17645,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-16.23152</v>
+        <v>-15.1598</v>
       </c>
     </row>
     <row r="33">
@@ -17653,7 +17653,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>27.40026</v>
+        <v>25.50931</v>
       </c>
     </row>
     <row r="34">
@@ -17661,7 +17661,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>26.01834</v>
+        <v>25.50931</v>
       </c>
     </row>
     <row r="35">
@@ -17669,7 +17669,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-15.42544</v>
+        <v>-15.1598</v>
       </c>
     </row>
     <row r="36">
@@ -17677,7 +17677,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-11.60337</v>
+        <v>-10.77898</v>
       </c>
     </row>
     <row r="37">
@@ -17685,7 +17685,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>16.52184</v>
+        <v>15.21598</v>
       </c>
     </row>
     <row r="38">
@@ -17693,7 +17693,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>15.72446</v>
+        <v>15.21598</v>
       </c>
     </row>
     <row r="39">
@@ -17701,7 +17701,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-10.99195</v>
+        <v>-10.77898</v>
       </c>
     </row>
     <row r="40">
@@ -17709,7 +17709,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.58479</v>
+        <v>-7.8758</v>
       </c>
     </row>
     <row r="41">
@@ -17717,7 +17717,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>10.93389</v>
+        <v>9.83663</v>
       </c>
     </row>
     <row r="42">
@@ -17725,7 +17725,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>10.43768</v>
+        <v>9.83663</v>
       </c>
     </row>
     <row r="43">
@@ -17733,7 +17733,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.145099999999999</v>
+        <v>-7.8758</v>
       </c>
     </row>
     <row r="44">
@@ -17741,7 +17741,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-6.44406</v>
+        <v>-5.75248</v>
       </c>
     </row>
     <row r="45">
@@ -17749,7 +17749,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>7.56698</v>
+        <v>6.49935</v>
       </c>
     </row>
     <row r="46">
@@ -17757,7 +17757,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>7.07296</v>
+        <v>6.49935</v>
       </c>
     </row>
     <row r="47">
@@ -17765,7 +17765,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.12804</v>
+        <v>-5.75248</v>
       </c>
     </row>
     <row r="48">
@@ -17773,7 +17773,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.9526</v>
+        <v>-23.23337</v>
       </c>
     </row>
     <row r="49">
@@ -17781,7 +17781,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.81291</v>
+        <v>-4.06703</v>
       </c>
     </row>
     <row r="50">
@@ -17789,7 +17789,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5.09742</v>
+        <v>4.17829</v>
       </c>
     </row>
     <row r="51">
@@ -17797,7 +17797,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.90273</v>
+        <v>-3.14287</v>
       </c>
     </row>
     <row r="52">
@@ -17805,7 +17805,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.77388</v>
+        <v>-3.14287</v>
       </c>
     </row>
     <row r="53">
@@ -17813,7 +17813,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>4.64698</v>
+        <v>4.17829</v>
       </c>
     </row>
     <row r="54">
@@ -17821,7 +17821,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.46745</v>
+        <v>-4.06703</v>
       </c>
     </row>
     <row r="55">
@@ -17829,7 +17829,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.69649</v>
+        <v>-23.23337</v>
       </c>
     </row>
     <row r="56">
@@ -17837,7 +17837,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.16835</v>
+        <v>-4.38325</v>
       </c>
     </row>
     <row r="57">
@@ -17845,7 +17845,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.22301</v>
+        <v>-4.38325</v>
       </c>
     </row>
     <row r="58">
@@ -17853,7 +17853,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-3.277</v>
+        <v>-2.63809</v>
       </c>
     </row>
     <row r="59">
@@ -17861,7 +17861,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>3.1039</v>
+        <v>2.50971</v>
       </c>
     </row>
     <row r="60">
@@ -17869,7 +17869,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.43957</v>
+        <v>-5.63873</v>
       </c>
     </row>
     <row r="61">
@@ -17877,7 +17877,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.59296</v>
+        <v>-5.63873</v>
       </c>
     </row>
     <row r="62">
@@ -17885,7 +17885,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>2.77972</v>
+        <v>2.50971</v>
       </c>
     </row>
     <row r="63">
@@ -17893,7 +17893,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.98846</v>
+        <v>-2.63809</v>
       </c>
     </row>
     <row r="64">
@@ -17901,7 +17901,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.60039</v>
+        <v>-6.87385</v>
       </c>
     </row>
     <row r="65">
@@ -17909,7 +17909,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-6.98728</v>
+        <v>-6.87385</v>
       </c>
     </row>
     <row r="66">
@@ -17917,7 +17917,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-38.99097</v>
+        <v>-36.16304</v>
       </c>
     </row>
     <row r="67">
@@ -17925,7 +17925,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.93887</v>
+        <v>-1.66869</v>
       </c>
     </row>
     <row r="68">
@@ -17933,7 +17933,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1.47024</v>
+        <v>1.47086</v>
       </c>
     </row>
     <row r="69">
@@ -17941,7 +17941,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1.5843</v>
+        <v>1.47086</v>
       </c>
     </row>
     <row r="70">
@@ -17949,7 +17949,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.77266</v>
+        <v>-1.66869</v>
       </c>
     </row>
     <row r="71">
@@ -17957,7 +17957,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-37.05116</v>
+        <v>-36.16304</v>
       </c>
     </row>
     <row r="72">
@@ -17965,7 +17965,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.71363</v>
+        <v>-0.89394</v>
       </c>
     </row>
     <row r="73">
@@ -17973,7 +17973,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.25052</v>
+        <v>0.60214</v>
       </c>
     </row>
     <row r="74">
@@ -17981,7 +17981,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.73477</v>
+        <v>0.60214</v>
       </c>
     </row>
     <row r="75">
@@ -17989,7 +17989,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.98828</v>
+        <v>-0.89394</v>
       </c>
     </row>
     <row r="76">
@@ -17997,7 +17997,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-47.5907</v>
+        <v>-43.89904</v>
       </c>
     </row>
     <row r="77">
@@ -18005,7 +18005,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.29671</v>
+        <v>-0.18259</v>
       </c>
     </row>
     <row r="78">
@@ -18013,7 +18013,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.8065099999999999</v>
+        <v>-0.15453</v>
       </c>
     </row>
     <row r="79">
@@ -18021,7 +18021,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02691</v>
+        <v>-0.15453</v>
       </c>
     </row>
     <row r="80">
@@ -18029,7 +18029,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.29533</v>
+        <v>-0.18259</v>
       </c>
     </row>
     <row r="81">
@@ -18037,7 +18037,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-45.25947</v>
+        <v>-43.89904</v>
       </c>
     </row>
     <row r="82">
@@ -18045,7 +18045,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24327</v>
+        <v>0.4755</v>
       </c>
     </row>
     <row r="83">
@@ -18053,7 +18053,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.8079</v>
+        <v>-0.84527</v>
       </c>
     </row>
     <row r="84">
@@ -18061,7 +18061,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.5569</v>
+        <v>-0.84527</v>
       </c>
     </row>
     <row r="85">
@@ -18069,7 +18069,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.317</v>
+        <v>0.4755</v>
       </c>
     </row>
     <row r="86">
@@ -18077,7 +18077,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-53.08118</v>
+        <v>-48.61509</v>
       </c>
     </row>
     <row r="87">
@@ -18085,7 +18085,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2.16945</v>
+        <v>1.23237</v>
       </c>
     </row>
     <row r="88">
@@ -18093,7 +18093,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.70181</v>
+        <v>-1.92505</v>
       </c>
     </row>
     <row r="89">
@@ -18101,7 +18101,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.47511</v>
+        <v>-1.92505</v>
       </c>
     </row>
     <row r="90">
@@ -18109,7 +18109,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9766</v>
+        <v>1.23237</v>
       </c>
     </row>
     <row r="91">
@@ -18117,7 +18117,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-50.39176</v>
+        <v>-48.61509</v>
       </c>
     </row>
     <row r="92">
@@ -18125,7 +18125,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>3.17983</v>
+        <v>2.39665</v>
       </c>
     </row>
     <row r="93">
@@ -18133,7 +18133,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1.9923</v>
+        <v>2.39665</v>
       </c>
     </row>
     <row r="94">
@@ -18141,7 +18141,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-56.49161</v>
+        <v>-51.40768</v>
       </c>
     </row>
     <row r="95">
@@ -18149,7 +18149,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>4.14032</v>
+        <v>3.44966</v>
       </c>
     </row>
     <row r="96">
@@ -18157,7 +18157,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>3.10524</v>
+        <v>3.44966</v>
       </c>
     </row>
     <row r="97">
@@ -18165,7 +18165,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-53.5017</v>
+        <v>-51.40768</v>
       </c>
     </row>
     <row r="98">
@@ -18173,7 +18173,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>5.38264</v>
+        <v>4.6527</v>
       </c>
     </row>
     <row r="99">
@@ -18181,7 +18181,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4.54622</v>
+        <v>4.6527</v>
       </c>
     </row>
     <row r="100">
@@ -18189,7 +18189,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-58.41082</v>
+        <v>-52.96356</v>
       </c>
     </row>
     <row r="101">
@@ -18197,7 +18197,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6.63077</v>
+        <v>5.88396</v>
       </c>
     </row>
     <row r="102">
@@ -18205,7 +18205,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>5.74009</v>
+        <v>5.88396</v>
       </c>
     </row>
     <row r="103">
@@ -18213,7 +18213,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-55.21542</v>
+        <v>-52.96356</v>
       </c>
     </row>
     <row r="104">
@@ -18221,7 +18221,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>14.38578</v>
+        <v>13.68809</v>
       </c>
     </row>
     <row r="105">
@@ -18229,7 +18229,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-59.24865</v>
+        <v>-53.7973</v>
       </c>
     </row>
     <row r="106">
@@ -18237,7 +18237,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-56.12623</v>
+        <v>-53.7973</v>
       </c>
     </row>
     <row r="107">
@@ -18245,7 +18245,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-59.38155</v>
+        <v>-54.1212</v>
       </c>
     </row>
     <row r="108">
@@ -18253,7 +18253,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-3.72398</v>
+        <v>-3.01875</v>
       </c>
     </row>
     <row r="109">
@@ -18261,7 +18261,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.55025</v>
+        <v>-3.01875</v>
       </c>
     </row>
     <row r="110">
@@ -18269,7 +18269,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-56.51263</v>
+        <v>-54.1212</v>
       </c>
     </row>
     <row r="111">
@@ -18277,7 +18277,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.19956</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="112">
@@ -18285,7 +18285,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24589</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="113">
@@ -18293,7 +18293,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.00318</v>
+        <v>-4.2371</v>
       </c>
     </row>
     <row r="114">
@@ -18301,7 +18301,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.03553</v>
+        <v>-4.2371</v>
       </c>
     </row>
     <row r="115">
@@ -18309,7 +18309,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-58.98423</v>
+        <v>-54.04653</v>
       </c>
     </row>
     <row r="116">
@@ -18317,7 +18317,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-56.52742</v>
+        <v>-54.04653</v>
       </c>
     </row>
     <row r="117">
@@ -18325,7 +18325,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.18384</v>
+        <v>0.15836</v>
       </c>
     </row>
     <row r="118">
@@ -18333,7 +18333,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2083</v>
+        <v>0.15836</v>
       </c>
     </row>
     <row r="119">
@@ -18341,7 +18341,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-6.29028</v>
+        <v>-5.48837</v>
       </c>
     </row>
     <row r="120">
@@ -18349,7 +18349,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.46676</v>
+        <v>-5.48837</v>
       </c>
     </row>
     <row r="121">
@@ -18357,7 +18357,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-58.14648</v>
+        <v>-53.65137</v>
       </c>
     </row>
     <row r="122">
@@ -18365,7 +18365,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.16583</v>
+        <v>0.16802</v>
       </c>
     </row>
     <row r="123">
@@ -18373,7 +18373,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.14117</v>
+        <v>0.16802</v>
       </c>
     </row>
     <row r="124">
@@ -18381,7 +18381,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-56.26943</v>
+        <v>-53.65137</v>
       </c>
     </row>
     <row r="125">
@@ -18389,7 +18389,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-7.48532</v>
+        <v>-6.72434</v>
       </c>
     </row>
     <row r="126">
@@ -18397,7 +18397,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.75316</v>
+        <v>-6.72434</v>
       </c>
     </row>
     <row r="127">
@@ -18405,7 +18405,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.12776</v>
+        <v>0.16662</v>
       </c>
     </row>
     <row r="128">
@@ -18413,7 +18413,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.25544</v>
+        <v>0.16662</v>
       </c>
     </row>
     <row r="129">
@@ -18421,7 +18421,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-56.97588</v>
+        <v>-52.81999</v>
       </c>
     </row>
     <row r="130">
@@ -18429,7 +18429,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-55.63105</v>
+        <v>-52.81999</v>
       </c>
     </row>
     <row r="131">
@@ -18437,7 +18437,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-55.45734</v>
+        <v>-51.58569</v>
       </c>
     </row>
     <row r="132">
@@ -18445,7 +18445,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-54.58735</v>
+        <v>-51.58569</v>
       </c>
     </row>
     <row r="133">
@@ -18453,7 +18453,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-53.4647</v>
+        <v>-49.9119</v>
       </c>
     </row>
     <row r="134">
@@ -18461,7 +18461,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-52.94939</v>
+        <v>-49.9119</v>
       </c>
     </row>
     <row r="135">
@@ -18469,7 +18469,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-51.10781</v>
+        <v>-47.84967</v>
       </c>
     </row>
     <row r="136">
@@ -18477,7 +18477,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-50.8828</v>
+        <v>-47.84967</v>
       </c>
     </row>
     <row r="137">
@@ -18485,7 +18485,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-48.46656</v>
+        <v>-45.48304</v>
       </c>
     </row>
     <row r="138">
@@ -18493,7 +18493,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-48.51468</v>
+        <v>-45.48304</v>
       </c>
     </row>
   </sheetData>
@@ -18532,10 +18532,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42.254</v>
+        <v>84.508</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3">
@@ -18543,10 +18543,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-42.254</v>
+        <v>-84.508</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6</v>
+        <v>31.2</v>
       </c>
     </row>
   </sheetData>
@@ -18596,10 +18596,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-0.00014</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00172</v>
+        <v>-0.00174</v>
       </c>
     </row>
     <row r="4">
@@ -18607,10 +18607,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00337</v>
+        <v>-0.00339</v>
       </c>
     </row>
     <row r="5">
@@ -18618,10 +18618,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00011</v>
+        <v>-0.00022</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00492</v>
+        <v>-0.00488</v>
       </c>
     </row>
     <row r="6">
@@ -18629,10 +18629,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00011</v>
+        <v>-0.00022</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00609</v>
+        <v>-0.0062</v>
       </c>
     </row>
     <row r="7">
@@ -18640,10 +18640,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00688</v>
+        <v>-0.00734</v>
       </c>
     </row>
     <row r="8">
@@ -18651,10 +18651,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.00018</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0076</v>
+        <v>-0.008370000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -18662,10 +18662,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-0.00015</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.008229999999999999</v>
+        <v>-0.00923</v>
       </c>
     </row>
     <row r="10">
@@ -18673,10 +18673,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-6e-05</v>
+        <v>-0.00012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.009889999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -18684,10 +18684,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-4e-05</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00928</v>
+        <v>-0.01037</v>
       </c>
     </row>
     <row r="12">
@@ -18695,10 +18695,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-3e-05</v>
+        <v>-6e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00967</v>
+        <v>-0.01066</v>
       </c>
     </row>
     <row r="13">
@@ -18706,10 +18706,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-2e-05</v>
+        <v>-4e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00997</v>
+        <v>-0.01095</v>
       </c>
     </row>
     <row r="14">
@@ -18717,10 +18717,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-1e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0101</v>
+        <v>-0.01113</v>
       </c>
     </row>
     <row r="15">
@@ -18728,10 +18728,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-1e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01014</v>
+        <v>-0.01121</v>
       </c>
     </row>
     <row r="16">
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01013</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="17">
@@ -18753,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="18">
@@ -18764,7 +18764,7 @@
         <v>-0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01007</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="19">
@@ -18772,10 +18772,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01019</v>
+        <v>-0.01121</v>
       </c>
     </row>
     <row r="20">
@@ -18783,10 +18783,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01021</v>
+        <v>-0.01113</v>
       </c>
     </row>
     <row r="21">
@@ -18794,10 +18794,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01013</v>
+        <v>-0.01095</v>
       </c>
     </row>
     <row r="22">
@@ -18805,10 +18805,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3e-05</v>
+        <v>6e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00987</v>
+        <v>-0.01066</v>
       </c>
     </row>
     <row r="23">
@@ -18816,10 +18816,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00944</v>
+        <v>-0.01037</v>
       </c>
     </row>
     <row r="24">
@@ -18827,10 +18827,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0089</v>
+        <v>-0.009889999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -18838,10 +18838,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00015</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00826</v>
+        <v>-0.00923</v>
       </c>
     </row>
     <row r="26">
@@ -18849,10 +18849,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00018</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00752</v>
+        <v>-0.008370000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -18860,10 +18860,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00672</v>
+        <v>-0.00734</v>
       </c>
     </row>
     <row r="28">
@@ -18871,10 +18871,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00011</v>
+        <v>0.00022</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00584</v>
+        <v>-0.0062</v>
       </c>
     </row>
     <row r="29">
@@ -18882,10 +18882,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00011</v>
+        <v>0.00022</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00487</v>
+        <v>-0.00488</v>
       </c>
     </row>
     <row r="30">
@@ -18893,10 +18893,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00352</v>
+        <v>-0.00339</v>
       </c>
     </row>
     <row r="31">
@@ -18904,10 +18904,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00179</v>
+        <v>-0.00174</v>
       </c>
     </row>
     <row r="32">
@@ -18926,10 +18926,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00069</v>
+        <v>0.00055</v>
       </c>
       <c r="C33" t="n">
-        <v>-2e-05</v>
+        <v>-3e-05</v>
       </c>
     </row>
     <row r="34">
@@ -18937,10 +18937,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00072</v>
+        <v>-0.00055</v>
       </c>
       <c r="C34" t="n">
-        <v>-2e-05</v>
+        <v>-3e-05</v>
       </c>
     </row>
     <row r="35">
@@ -18948,10 +18948,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00091</v>
+        <v>0.00075</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00174</v>
+        <v>-0.00177</v>
       </c>
     </row>
     <row r="36">
@@ -18959,10 +18959,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00096</v>
+        <v>-0.00075</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00181</v>
+        <v>-0.00177</v>
       </c>
     </row>
     <row r="37">
@@ -18970,10 +18970,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00339</v>
+        <v>-0.00342</v>
       </c>
     </row>
     <row r="38">
@@ -18981,10 +18981,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00094</v>
+        <v>-0.0009</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00353</v>
+        <v>-0.00342</v>
       </c>
     </row>
     <row r="39">
@@ -18995,7 +18995,7 @@
         <v>0.00099</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00494</v>
+        <v>-0.00491</v>
       </c>
     </row>
     <row r="40">
@@ -19003,10 +19003,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00079</v>
+        <v>-0.00099</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00488</v>
+        <v>-0.00491</v>
       </c>
     </row>
     <row r="41">
@@ -19014,10 +19014,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00078</v>
+        <v>0.00104</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0061</v>
+        <v>-0.00622</v>
       </c>
     </row>
     <row r="42">
@@ -19025,10 +19025,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00019</v>
+        <v>0.00029</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01003</v>
+        <v>-0.01102</v>
       </c>
     </row>
     <row r="43">
@@ -19036,10 +19036,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00012</v>
+        <v>-0.00029</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01016</v>
+        <v>-0.01102</v>
       </c>
     </row>
     <row r="44">
@@ -19047,10 +19047,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00087</v>
+        <v>-0.00104</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00585</v>
+        <v>-0.00622</v>
       </c>
     </row>
     <row r="45">
@@ -19058,10 +19058,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00017</v>
+        <v>0.00026</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01009</v>
+        <v>-0.01113</v>
       </c>
     </row>
     <row r="46">
@@ -19069,10 +19069,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.00026</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01017</v>
+        <v>-0.01113</v>
       </c>
     </row>
     <row r="47">
@@ -19080,10 +19080,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00082</v>
+        <v>0.00105</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00689</v>
+        <v>-0.00736</v>
       </c>
     </row>
     <row r="48">
@@ -19091,10 +19091,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00016</v>
+        <v>0.00023</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01009</v>
+        <v>-0.01114</v>
       </c>
     </row>
     <row r="49">
@@ -19102,10 +19102,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00014</v>
+        <v>-0.00023</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01008</v>
+        <v>-0.01114</v>
       </c>
     </row>
     <row r="50">
@@ -19113,10 +19113,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0009300000000000001</v>
+        <v>-0.00105</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.00673</v>
+        <v>-0.00736</v>
       </c>
     </row>
     <row r="51">
@@ -19124,10 +19124,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00027</v>
+        <v>0.0003</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.009979999999999999</v>
+        <v>-0.01103</v>
       </c>
     </row>
     <row r="52">
@@ -19135,10 +19135,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00011</v>
+        <v>-0.0003</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.009979999999999999</v>
+        <v>-0.01103</v>
       </c>
     </row>
     <row r="53">
@@ -19146,10 +19146,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00085</v>
+        <v>0.00104</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0076</v>
+        <v>-0.00839</v>
       </c>
     </row>
     <row r="54">
@@ -19157,10 +19157,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0009700000000000001</v>
+        <v>-0.00104</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00753</v>
+        <v>-0.00839</v>
       </c>
     </row>
     <row r="55">
@@ -19168,10 +19168,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00086</v>
+        <v>0.001</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.008240000000000001</v>
+        <v>-0.00923</v>
       </c>
     </row>
     <row r="56">
@@ -19182,7 +19182,7 @@
         <v>-0.001</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.00826</v>
+        <v>-0.00923</v>
       </c>
     </row>
     <row r="57">
@@ -19190,10 +19190,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00083</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.009860000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -19201,10 +19201,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.00098</v>
+        <v>-0.0009300000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.0089</v>
+        <v>-0.009860000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -19212,10 +19212,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00079</v>
+        <v>0.00083</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.009259999999999999</v>
+        <v>-0.01031</v>
       </c>
     </row>
     <row r="60">
@@ -19223,10 +19223,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00095</v>
+        <v>-0.00083</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00942</v>
+        <v>-0.01031</v>
       </c>
     </row>
     <row r="61">
@@ -19234,10 +19234,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00073</v>
+        <v>0.00071</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00963</v>
+        <v>-0.01063</v>
       </c>
     </row>
     <row r="62">
@@ -19245,10 +19245,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00061</v>
+        <v>-0.00071</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.009860000000000001</v>
+        <v>-0.01063</v>
       </c>
     </row>
     <row r="63">
@@ -19256,10 +19256,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00038</v>
+        <v>0.00059</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.009950000000000001</v>
+        <v>-0.01091</v>
       </c>
     </row>
     <row r="64">
@@ -19267,10 +19267,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.00025</v>
+        <v>-0.00059</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01012</v>
+        <v>-0.01091</v>
       </c>
     </row>
     <row r="65">
@@ -19278,10 +19278,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00033</v>
+        <v>0.00046</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01008</v>
+        <v>-0.01108</v>
       </c>
     </row>
     <row r="66">
@@ -19289,10 +19289,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00018</v>
+        <v>-0.00046</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01019</v>
+        <v>-0.01108</v>
       </c>
     </row>
     <row r="67">
@@ -19300,10 +19300,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00026</v>
+        <v>0.00032</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01012</v>
+        <v>-0.01115</v>
       </c>
     </row>
     <row r="68">
@@ -19311,10 +19311,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0001</v>
+        <v>-0.00032</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01017</v>
+        <v>-0.01115</v>
       </c>
     </row>
     <row r="69">
@@ -19322,10 +19322,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01009</v>
+        <v>-0.01112</v>
       </c>
     </row>
     <row r="70">
@@ -19333,10 +19333,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1e-05</v>
+        <v>-0.00017</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01004</v>
+        <v>-0.01112</v>
       </c>
     </row>
     <row r="71">
@@ -19344,10 +19344,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>-0</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.00992</v>
+        <v>-0.01093</v>
       </c>
     </row>
   </sheetData>
@@ -19381,7 +19381,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.25501</v>
+        <v>-84.51002</v>
       </c>
     </row>
     <row r="3">
@@ -19389,7 +19389,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-19.04606</v>
+        <v>-38.08608</v>
       </c>
     </row>
     <row r="4">
@@ -19397,7 +19397,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.39898</v>
+        <v>-12.79796</v>
       </c>
     </row>
     <row r="5">
@@ -19405,7 +19405,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9668</v>
+        <v>1.92755</v>
       </c>
     </row>
     <row r="6">
@@ -19413,7 +19413,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.30534</v>
+        <v>10.61673</v>
       </c>
     </row>
     <row r="7">
@@ -19421,7 +19421,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.77062</v>
+        <v>15.52915</v>
       </c>
     </row>
     <row r="8">
@@ -19429,7 +19429,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.967029999999999</v>
+        <v>17.93406</v>
       </c>
     </row>
     <row r="9">
@@ -19437,7 +19437,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.287369999999999</v>
+        <v>18.57474</v>
       </c>
     </row>
     <row r="10">
@@ -19445,7 +19445,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.967029999999999</v>
+        <v>17.93406</v>
       </c>
     </row>
     <row r="11">
@@ -19453,7 +19453,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.16338</v>
+        <v>16.3328</v>
       </c>
     </row>
     <row r="12">
@@ -19461,7 +19461,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.99725</v>
+        <v>13.9945</v>
       </c>
     </row>
     <row r="13">
@@ -19469,7 +19469,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5.54095</v>
+        <v>11.07585</v>
       </c>
     </row>
     <row r="14">
@@ -19477,7 +19477,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.84301</v>
+        <v>7.69207</v>
       </c>
     </row>
     <row r="15">
@@ -19485,7 +19485,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.96382</v>
+        <v>3.92765</v>
       </c>
     </row>
     <row r="16">
@@ -19493,7 +19493,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07251000000000001</v>
+        <v>-0.14502</v>
       </c>
     </row>
     <row r="17">
@@ -19501,7 +19501,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.07251000000000001</v>
+        <v>-0.14502</v>
       </c>
     </row>
     <row r="18">
@@ -19509,7 +19509,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.96382</v>
+        <v>3.92765</v>
       </c>
     </row>
     <row r="19">
@@ -19517,7 +19517,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.84301</v>
+        <v>7.69207</v>
       </c>
     </row>
     <row r="20">
@@ -19525,7 +19525,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.54095</v>
+        <v>11.07585</v>
       </c>
     </row>
     <row r="21">
@@ -19533,7 +19533,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6.99725</v>
+        <v>13.9945</v>
       </c>
     </row>
     <row r="22">
@@ -19541,7 +19541,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>8.16338</v>
+        <v>16.3328</v>
       </c>
     </row>
     <row r="23">
@@ -19549,7 +19549,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>8.967029999999999</v>
+        <v>17.93406</v>
       </c>
     </row>
     <row r="24">
@@ -19557,7 +19557,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>9.287369999999999</v>
+        <v>18.57474</v>
       </c>
     </row>
     <row r="25">
@@ -19565,7 +19565,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>8.967029999999999</v>
+        <v>17.93406</v>
       </c>
     </row>
     <row r="26">
@@ -19573,7 +19573,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7.77062</v>
+        <v>15.52915</v>
       </c>
     </row>
     <row r="27">
@@ -19581,7 +19581,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5.30534</v>
+        <v>10.61673</v>
       </c>
     </row>
     <row r="28">
@@ -19589,7 +19589,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9668</v>
+        <v>1.92755</v>
       </c>
     </row>
     <row r="29">
@@ -19597,7 +19597,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.39898</v>
+        <v>-12.79796</v>
       </c>
     </row>
     <row r="30">
@@ -19605,7 +19605,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-19.04606</v>
+        <v>-38.08608</v>
       </c>
     </row>
     <row r="31">
@@ -19613,7 +19613,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25501</v>
+        <v>-84.51002</v>
       </c>
     </row>
     <row r="32">
@@ -19621,7 +19621,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-15.59948</v>
+        <v>-30.67684</v>
       </c>
     </row>
     <row r="33">
@@ -19629,7 +19629,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>25.81846</v>
+        <v>51.63813</v>
       </c>
     </row>
     <row r="34">
@@ -19637,7 +19637,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>25.81674</v>
+        <v>51.63813</v>
       </c>
     </row>
     <row r="35">
@@ -19645,7 +19645,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-15.59948</v>
+        <v>-30.67684</v>
       </c>
     </row>
     <row r="36">
@@ -19653,7 +19653,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-11.31483</v>
+        <v>-21.57856</v>
       </c>
     </row>
     <row r="37">
@@ -19661,7 +19661,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>15.07605</v>
+        <v>30.16196</v>
       </c>
     </row>
     <row r="38">
@@ -19669,7 +19669,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>15.07945</v>
+        <v>30.16196</v>
       </c>
     </row>
     <row r="39">
@@ -19677,7 +19677,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-11.30796</v>
+        <v>-21.57856</v>
       </c>
     </row>
     <row r="40">
@@ -19685,7 +19685,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.21655</v>
+        <v>-15.39436</v>
       </c>
     </row>
     <row r="41">
@@ -19693,7 +19693,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>9.48535</v>
+        <v>18.97169</v>
       </c>
     </row>
     <row r="42">
@@ -19701,7 +19701,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>9.48372</v>
+        <v>18.97169</v>
       </c>
     </row>
     <row r="43">
@@ -19709,7 +19709,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.21655</v>
+        <v>-15.39436</v>
       </c>
     </row>
     <row r="44">
@@ -19717,7 +19717,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.9769</v>
+        <v>-10.91872</v>
       </c>
     </row>
     <row r="45">
@@ -19725,7 +19725,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6.06915</v>
+        <v>12.13432</v>
       </c>
     </row>
     <row r="46">
@@ -19733,7 +19733,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6.06594</v>
+        <v>12.13432</v>
       </c>
     </row>
     <row r="47">
@@ -19741,7 +19741,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.98148</v>
+        <v>-10.91872</v>
       </c>
     </row>
     <row r="48">
@@ -19749,7 +19749,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-23.51143</v>
+        <v>-47.0284</v>
       </c>
     </row>
     <row r="49">
@@ -19757,7 +19757,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.23583</v>
+        <v>-7.42743</v>
       </c>
     </row>
     <row r="50">
@@ -19765,7 +19765,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>3.71935</v>
+        <v>7.44548</v>
       </c>
     </row>
     <row r="51">
@@ -19773,7 +19773,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.20134</v>
+        <v>-8.409549999999999</v>
       </c>
     </row>
     <row r="52">
@@ -19781,7 +19781,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.2029</v>
+        <v>-8.409549999999999</v>
       </c>
     </row>
     <row r="53">
@@ -19789,7 +19789,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>3.72083</v>
+        <v>7.44548</v>
       </c>
     </row>
     <row r="54">
@@ -19797,7 +19797,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.23583</v>
+        <v>-7.42743</v>
       </c>
     </row>
     <row r="55">
@@ -19805,7 +19805,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.51448</v>
+        <v>-47.0284</v>
       </c>
     </row>
     <row r="56">
@@ -19813,7 +19813,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.95296</v>
+        <v>-9.90748</v>
       </c>
     </row>
     <row r="57">
@@ -19821,7 +19821,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.95206</v>
+        <v>-9.90748</v>
       </c>
     </row>
     <row r="58">
@@ -19829,7 +19829,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.7961</v>
+        <v>-4.55139</v>
       </c>
     </row>
     <row r="59">
@@ -19837,7 +19837,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1.96944</v>
+        <v>3.93592</v>
       </c>
     </row>
     <row r="60">
@@ -19845,7 +19845,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.66921</v>
+        <v>-11.33852</v>
       </c>
     </row>
     <row r="61">
@@ -19853,7 +19853,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.66932</v>
+        <v>-11.33852</v>
       </c>
     </row>
     <row r="62">
@@ -19861,7 +19861,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.97003</v>
+        <v>3.93592</v>
       </c>
     </row>
     <row r="63">
@@ -19869,7 +19869,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.7961</v>
+        <v>-4.55139</v>
       </c>
     </row>
     <row r="64">
@@ -19877,7 +19877,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-6.36039</v>
+        <v>-12.7192</v>
       </c>
     </row>
     <row r="65">
@@ -19885,7 +19885,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-6.35994</v>
+        <v>-12.7192</v>
       </c>
     </row>
     <row r="66">
@@ -19893,7 +19893,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-36.32547</v>
+        <v>-72.64955</v>
       </c>
     </row>
     <row r="67">
@@ -19901,7 +19901,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.5572</v>
+        <v>-2.07952</v>
       </c>
     </row>
     <row r="68">
@@ -19909,7 +19909,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.56867</v>
+        <v>1.13367</v>
       </c>
     </row>
     <row r="69">
@@ -19917,7 +19917,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5668299999999999</v>
+        <v>1.13367</v>
       </c>
     </row>
     <row r="70">
@@ -19925,7 +19925,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.55964</v>
+        <v>-2.07952</v>
       </c>
     </row>
     <row r="71">
@@ -19933,7 +19933,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-36.3252</v>
+        <v>-72.64955</v>
       </c>
     </row>
     <row r="72">
@@ -19941,7 +19941,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.46789</v>
+        <v>0.10423</v>
       </c>
     </row>
     <row r="73">
@@ -19949,7 +19949,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.60898</v>
+        <v>-1.22051</v>
       </c>
     </row>
     <row r="74">
@@ -19957,7 +19957,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.60975</v>
+        <v>-1.22051</v>
       </c>
     </row>
     <row r="75">
@@ -19965,7 +19965,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.46789</v>
+        <v>0.10423</v>
       </c>
     </row>
     <row r="76">
@@ -19973,7 +19973,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-43.7851</v>
+        <v>-87.56748</v>
       </c>
     </row>
     <row r="77">
@@ -19981,7 +19981,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.52011</v>
+        <v>2.07975</v>
       </c>
     </row>
     <row r="78">
@@ -19989,7 +19989,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.63632</v>
+        <v>-3.27792</v>
       </c>
     </row>
     <row r="79">
@@ -19997,7 +19997,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.63871</v>
+        <v>-3.27792</v>
       </c>
     </row>
     <row r="80">
@@ -20005,7 +20005,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.52011</v>
+        <v>2.07975</v>
       </c>
     </row>
     <row r="81">
@@ -20013,7 +20013,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-43.78434</v>
+        <v>-87.56748</v>
       </c>
     </row>
     <row r="82">
@@ -20021,7 +20021,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4303</v>
+        <v>3.90037</v>
       </c>
     </row>
     <row r="83">
@@ -20029,7 +20029,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.56236</v>
+        <v>-5.12533</v>
       </c>
     </row>
     <row r="84">
@@ -20037,7 +20037,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.56261</v>
+        <v>-5.12533</v>
       </c>
     </row>
     <row r="85">
@@ -20045,7 +20045,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1.4303</v>
+        <v>3.90037</v>
       </c>
     </row>
     <row r="86">
@@ -20053,7 +20053,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-48.18568</v>
+        <v>-96.36960000000001</v>
       </c>
     </row>
     <row r="87">
@@ -20061,7 +20061,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2.28006</v>
+        <v>5.59957</v>
       </c>
     </row>
     <row r="88">
@@ -20069,7 +20069,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.41292</v>
+        <v>-6.82292</v>
       </c>
     </row>
     <row r="89">
@@ -20077,7 +20077,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.4118</v>
+        <v>-6.82292</v>
       </c>
     </row>
     <row r="90">
@@ -20085,7 +20085,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>2.28084</v>
+        <v>5.59957</v>
       </c>
     </row>
     <row r="91">
@@ -20093,7 +20093,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-48.18646</v>
+        <v>-96.36960000000001</v>
       </c>
     </row>
     <row r="92">
@@ -20101,7 +20101,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>3.08169</v>
+        <v>7.2037</v>
       </c>
     </row>
     <row r="93">
@@ -20109,7 +20109,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>3.08169</v>
+        <v>7.2037</v>
       </c>
     </row>
     <row r="94">
@@ -20117,7 +20117,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.67208</v>
+        <v>-101.35302</v>
       </c>
     </row>
     <row r="95">
@@ -20125,7 +20125,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>3.84903</v>
+        <v>8.73498</v>
       </c>
     </row>
     <row r="96">
@@ -20133,7 +20133,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>3.8472</v>
+        <v>8.73498</v>
       </c>
     </row>
     <row r="97">
@@ -20141,7 +20141,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-50.67674</v>
+        <v>-101.35302</v>
       </c>
     </row>
     <row r="98">
@@ -20149,7 +20149,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>4.58228</v>
+        <v>10.20365</v>
       </c>
     </row>
     <row r="99">
@@ -20157,7 +20157,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4.58228</v>
+        <v>10.20365</v>
       </c>
     </row>
     <row r="100">
@@ -20165,7 +20165,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-51.89665</v>
+        <v>-103.78563</v>
       </c>
     </row>
     <row r="101">
@@ -20173,7 +20173,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>5.29233</v>
+        <v>11.62244</v>
       </c>
     </row>
     <row r="102">
@@ -20181,7 +20181,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>5.29233</v>
+        <v>11.62244</v>
       </c>
     </row>
     <row r="103">
@@ -20189,7 +20189,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-51.89179</v>
+        <v>-103.78563</v>
       </c>
     </row>
     <row r="104">
@@ -20197,7 +20197,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>11.95991</v>
+        <v>24.961</v>
       </c>
     </row>
     <row r="105">
@@ -20205,7 +20205,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-52.2138</v>
+        <v>-104.43461</v>
       </c>
     </row>
     <row r="106">
@@ -20213,7 +20213,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-52.21705</v>
+        <v>-104.43461</v>
       </c>
     </row>
     <row r="107">
@@ -20221,7 +20221,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-51.8946</v>
+        <v>-103.78495</v>
       </c>
     </row>
     <row r="108">
@@ -20229,7 +20229,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-4.20418</v>
+        <v>-8.40924</v>
       </c>
     </row>
     <row r="109">
@@ -20237,7 +20237,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.20569</v>
+        <v>-8.40924</v>
       </c>
     </row>
     <row r="110">
@@ -20245,7 +20245,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-51.89109</v>
+        <v>-103.78495</v>
       </c>
     </row>
     <row r="111">
@@ -20253,7 +20253,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.00015</v>
+        <v>-0.00037</v>
       </c>
     </row>
     <row r="112">
@@ -20261,7 +20261,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.0015</v>
+        <v>-0.00037</v>
       </c>
     </row>
     <row r="113">
@@ -20269,7 +20269,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.9533</v>
+        <v>-9.90874</v>
       </c>
     </row>
     <row r="114">
@@ -20277,7 +20277,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.95419</v>
+        <v>-9.90874</v>
       </c>
     </row>
     <row r="115">
@@ -20285,7 +20285,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-51.08303</v>
+        <v>-102.16225</v>
       </c>
     </row>
     <row r="116">
@@ -20293,7 +20293,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-51.08309</v>
+        <v>-102.16225</v>
       </c>
     </row>
     <row r="117">
@@ -20301,7 +20301,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00023</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="118">
@@ -20309,7 +20309,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="119">
@@ -20317,7 +20317,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.67019</v>
+        <v>-11.34151</v>
       </c>
     </row>
     <row r="120">
@@ -20325,7 +20325,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.66982</v>
+        <v>-11.34151</v>
       </c>
     </row>
     <row r="121">
@@ -20333,7 +20333,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-49.89414</v>
+        <v>-99.79732</v>
       </c>
     </row>
     <row r="122">
@@ -20341,7 +20341,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.00203</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="123">
@@ -20349,7 +20349,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00148</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="124">
@@ -20357,7 +20357,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-49.89602</v>
+        <v>-99.79732</v>
       </c>
     </row>
     <row r="125">
@@ -20365,7 +20365,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-6.3601</v>
+        <v>-12.7212</v>
       </c>
     </row>
     <row r="126">
@@ -20373,7 +20373,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.36175</v>
+        <v>-12.7212</v>
       </c>
     </row>
     <row r="127">
@@ -20381,7 +20381,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.00101</v>
+        <v>-0.00047</v>
       </c>
     </row>
     <row r="128">
@@ -20389,7 +20389,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00076</v>
+        <v>-0.00047</v>
       </c>
     </row>
     <row r="129">
@@ -20397,7 +20397,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-48.41816</v>
+        <v>-96.83082</v>
       </c>
     </row>
     <row r="130">
@@ -20405,7 +20405,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-48.41828</v>
+        <v>-96.83082</v>
       </c>
     </row>
     <row r="131">
@@ -20413,7 +20413,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-46.69983</v>
+        <v>-93.4098</v>
       </c>
     </row>
     <row r="132">
@@ -20421,7 +20421,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-46.70047</v>
+        <v>-93.4098</v>
       </c>
     </row>
     <row r="133">
@@ -20429,7 +20429,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-44.79794</v>
+        <v>-89.59369</v>
       </c>
     </row>
     <row r="134">
@@ -20437,7 +20437,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-44.80001</v>
+        <v>-89.59369</v>
       </c>
     </row>
     <row r="135">
@@ -20445,7 +20445,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-42.73378</v>
+        <v>-85.47405999999999</v>
       </c>
     </row>
     <row r="136">
@@ -20453,7 +20453,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-42.73289</v>
+        <v>-85.47405999999999</v>
       </c>
     </row>
     <row r="137">
@@ -20461,7 +20461,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-40.54665</v>
+        <v>-81.07952</v>
       </c>
     </row>
     <row r="138">
@@ -20469,7 +20469,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-40.54117</v>
+        <v>-81.07952</v>
       </c>
     </row>
   </sheetData>
@@ -20575,7 +20575,7 @@
         <v>-0.00017</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00413</v>
+        <v>-0.00208</v>
       </c>
     </row>
     <row r="4">
@@ -20586,7 +20586,7 @@
         <v>-0.00024</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0081</v>
+        <v>-0.00405</v>
       </c>
     </row>
     <row r="5">
@@ -20597,7 +20597,7 @@
         <v>-0.00027</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01182</v>
+        <v>-0.00583</v>
       </c>
     </row>
     <row r="6">
@@ -20608,7 +20608,7 @@
         <v>-0.00027</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01461</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="7">
@@ -20619,7 +20619,7 @@
         <v>-0.00024</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01652</v>
+        <v>-0.00877</v>
       </c>
     </row>
     <row r="8">
@@ -20630,7 +20630,7 @@
         <v>-0.00021</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01824</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -20641,7 +20641,7 @@
         <v>-0.00018</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01976</v>
+        <v>-0.01103</v>
       </c>
     </row>
     <row r="10">
@@ -20652,7 +20652,7 @@
         <v>-0.00014</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02113</v>
+        <v>-0.01184</v>
       </c>
     </row>
     <row r="11">
@@ -20663,7 +20663,7 @@
         <v>-0.00011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02227</v>
+        <v>-0.01243</v>
       </c>
     </row>
     <row r="12">
@@ -20674,7 +20674,7 @@
         <v>-6.999999999999999e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0232</v>
+        <v>-0.01279</v>
       </c>
     </row>
     <row r="13">
@@ -20685,7 +20685,7 @@
         <v>-4e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02393</v>
+        <v>-0.01314</v>
       </c>
     </row>
     <row r="14">
@@ -20696,7 +20696,7 @@
         <v>-2e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02424</v>
+        <v>-0.01336</v>
       </c>
     </row>
     <row r="15">
@@ -20707,7 +20707,7 @@
         <v>-1e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02434</v>
+        <v>-0.01346</v>
       </c>
     </row>
     <row r="16">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0243</v>
+        <v>-0.01345</v>
       </c>
     </row>
     <row r="17">
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.024</v>
+        <v>-0.01334</v>
       </c>
     </row>
     <row r="18">
@@ -20740,7 +20740,7 @@
         <v>-0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02416</v>
+        <v>-0.01345</v>
       </c>
     </row>
     <row r="19">
@@ -20751,7 +20751,7 @@
         <v>1e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02446</v>
+        <v>-0.01346</v>
       </c>
     </row>
     <row r="20">
@@ -20762,7 +20762,7 @@
         <v>2e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0245</v>
+        <v>-0.01336</v>
       </c>
     </row>
     <row r="21">
@@ -20773,7 +20773,7 @@
         <v>4e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02432</v>
+        <v>-0.01314</v>
       </c>
     </row>
     <row r="22">
@@ -20784,7 +20784,7 @@
         <v>6.999999999999999e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02368</v>
+        <v>-0.01279</v>
       </c>
     </row>
     <row r="23">
@@ -20795,7 +20795,7 @@
         <v>0.00011</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02266</v>
+        <v>-0.01243</v>
       </c>
     </row>
     <row r="24">
@@ -20806,7 +20806,7 @@
         <v>0.00014</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02137</v>
+        <v>-0.01184</v>
       </c>
     </row>
     <row r="25">
@@ -20817,7 +20817,7 @@
         <v>0.00018</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01982</v>
+        <v>-0.01103</v>
       </c>
     </row>
     <row r="26">
@@ -20828,7 +20828,7 @@
         <v>0.00021</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01804</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
@@ -20839,7 +20839,7 @@
         <v>0.00024</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01612</v>
+        <v>-0.00877</v>
       </c>
     </row>
     <row r="28">
@@ -20850,7 +20850,7 @@
         <v>0.00027</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01401</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="29">
@@ -20861,7 +20861,7 @@
         <v>0.00027</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01168</v>
+        <v>-0.00583</v>
       </c>
     </row>
     <row r="30">
@@ -20872,7 +20872,7 @@
         <v>0.00024</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00844</v>
+        <v>-0.00405</v>
       </c>
     </row>
     <row r="31">
@@ -20883,7 +20883,7 @@
         <v>0.00017</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0043</v>
+        <v>-0.00208</v>
       </c>
     </row>
     <row r="32">
@@ -20902,7 +20902,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00165</v>
+        <v>0.00065</v>
       </c>
       <c r="C33" t="n">
         <v>-4e-05</v>
@@ -20913,7 +20913,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00174</v>
+        <v>-0.00065</v>
       </c>
       <c r="C34" t="n">
         <v>-4e-05</v>
@@ -20924,10 +20924,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00219</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00417</v>
+        <v>-0.00212</v>
       </c>
     </row>
     <row r="36">
@@ -20935,10 +20935,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0023</v>
+        <v>-0.0008899999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00434</v>
+        <v>-0.00212</v>
       </c>
     </row>
     <row r="37">
@@ -20946,10 +20946,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00264</v>
+        <v>0.00107</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00813</v>
+        <v>-0.00408</v>
       </c>
     </row>
     <row r="38">
@@ -20957,10 +20957,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00225</v>
+        <v>-0.00107</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00848</v>
+        <v>-0.00408</v>
       </c>
     </row>
     <row r="39">
@@ -20968,10 +20968,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00237</v>
+        <v>0.00118</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01185</v>
+        <v>-0.00586</v>
       </c>
     </row>
     <row r="40">
@@ -20979,10 +20979,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00191</v>
+        <v>-0.00118</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01172</v>
+        <v>-0.00586</v>
       </c>
     </row>
     <row r="41">
@@ -20990,10 +20990,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00186</v>
+        <v>0.00123</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01464</v>
+        <v>-0.00743</v>
       </c>
     </row>
     <row r="42">
@@ -21001,10 +21001,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00045</v>
+        <v>0.00034</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02407</v>
+        <v>-0.01323</v>
       </c>
     </row>
     <row r="43">
@@ -21012,10 +21012,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00029</v>
+        <v>-0.00034</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0244</v>
+        <v>-0.01323</v>
       </c>
     </row>
     <row r="44">
@@ -21023,10 +21023,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00209</v>
+        <v>-0.00123</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01403</v>
+        <v>-0.00743</v>
       </c>
     </row>
     <row r="45">
@@ -21034,10 +21034,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00042</v>
+        <v>0.00031</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02421</v>
+        <v>-0.01337</v>
       </c>
     </row>
     <row r="46">
@@ -21045,10 +21045,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00023</v>
+        <v>-0.00031</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0244</v>
+        <v>-0.01337</v>
       </c>
     </row>
     <row r="47">
@@ -21056,10 +21056,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00196</v>
+        <v>0.00125</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01654</v>
+        <v>-0.008789999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -21067,10 +21067,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00037</v>
+        <v>0.00027</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.02421</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="49">
@@ -21078,10 +21078,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00034</v>
+        <v>-0.00027</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0242</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="50">
@@ -21089,10 +21089,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00222</v>
+        <v>-0.00125</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01614</v>
+        <v>-0.008789999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -21100,10 +21100,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00065</v>
+        <v>0.00035</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.02395</v>
+        <v>-0.01327</v>
       </c>
     </row>
     <row r="52">
@@ -21111,10 +21111,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00026</v>
+        <v>-0.00035</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.02396</v>
+        <v>-0.01327</v>
       </c>
     </row>
     <row r="53">
@@ -21122,10 +21122,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00203</v>
+        <v>0.00124</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01825</v>
+        <v>-0.01004</v>
       </c>
     </row>
     <row r="54">
@@ -21133,10 +21133,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.00233</v>
+        <v>-0.00124</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01808</v>
+        <v>-0.01004</v>
       </c>
     </row>
     <row r="55">
@@ -21144,10 +21144,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00206</v>
+        <v>0.00119</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01978</v>
+        <v>-0.01105</v>
       </c>
     </row>
     <row r="56">
@@ -21155,10 +21155,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0024</v>
+        <v>-0.00119</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01983</v>
+        <v>-0.01105</v>
       </c>
     </row>
     <row r="57">
@@ -21166,10 +21166,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00199</v>
+        <v>0.00111</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02111</v>
+        <v>-0.01182</v>
       </c>
     </row>
     <row r="58">
@@ -21177,10 +21177,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.00236</v>
+        <v>-0.00111</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02135</v>
+        <v>-0.01182</v>
       </c>
     </row>
     <row r="59">
@@ -21188,10 +21188,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00189</v>
+        <v>0.00099</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.02222</v>
+        <v>-0.01237</v>
       </c>
     </row>
     <row r="60">
@@ -21199,10 +21199,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00228</v>
+        <v>-0.00099</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0226</v>
+        <v>-0.01237</v>
       </c>
     </row>
     <row r="61">
@@ -21210,10 +21210,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00176</v>
+        <v>0.00085</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02311</v>
+        <v>-0.01277</v>
       </c>
     </row>
     <row r="62">
@@ -21221,10 +21221,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00146</v>
+        <v>-0.00085</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02366</v>
+        <v>-0.01277</v>
       </c>
     </row>
     <row r="63">
@@ -21232,10 +21232,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00092</v>
+        <v>0.0007</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02389</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="64">
@@ -21243,10 +21243,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.00059</v>
+        <v>-0.0007</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.02428</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="65">
@@ -21254,10 +21254,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00078</v>
+        <v>0.00055</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.02419</v>
+        <v>-0.01331</v>
       </c>
     </row>
     <row r="66">
@@ -21265,10 +21265,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00043</v>
+        <v>-0.00055</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.02445</v>
+        <v>-0.01331</v>
       </c>
     </row>
     <row r="67">
@@ -21276,10 +21276,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00061</v>
+        <v>0.00038</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.02428</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="68">
@@ -21287,10 +21287,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.00024</v>
+        <v>-0.00038</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0244</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="69">
@@ -21298,10 +21298,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00043</v>
+        <v>0.0002</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.02423</v>
+        <v>-0.01338</v>
       </c>
     </row>
     <row r="70">
@@ -21309,10 +21309,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1e-05</v>
+        <v>-0.0002</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.02408</v>
+        <v>-0.01338</v>
       </c>
     </row>
     <row r="71">
@@ -21320,10 +21320,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0002</v>
+        <v>-0</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.02381</v>
+        <v>-0.01315</v>
       </c>
     </row>
   </sheetData>
